--- a/editMapaGANTT/Mapa de Act-Prototipado-MyE.xlsx
+++ b/editMapaGANTT/Mapa de Act-Prototipado-MyE.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playa\asd\sugpaDoc\editMapaGANTT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9525"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
   <si>
     <t>Prototipo Maqueta (1 a 3 iteraciones)</t>
   </si>
@@ -103,9 +108,6 @@
     <t xml:space="preserve">- Planificar la garantía de calidad del software. </t>
   </si>
   <si>
-    <t>- Desarrollar métricas de calidad.</t>
-  </si>
-  <si>
     <t>- Gestionar la calidad del software.</t>
   </si>
   <si>
@@ -170,9 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve">- Crear los datos de prueba. </t>
-  </si>
-  <si>
-    <t>- Crear el código fuente.</t>
   </si>
   <si>
     <t>- Generar el código objeto.</t>
@@ -262,8 +261,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -423,7 +422,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -441,6 +440,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 12"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6134100" cy="8658225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
@@ -714,31 +761,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K975"/>
+  <dimension ref="A1:K973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:A75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="11" width="5.7109375" customWidth="1"/>
     <col min="12" max="25" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -751,9 +798,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1">
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="23" t="s">
@@ -772,7 +819,7 @@
       </c>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" s="18" customFormat="1" ht="14.45" customHeight="1">
+    <row r="3" spans="1:11" s="18" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22"/>
       <c r="B3" s="17"/>
       <c r="C3" s="24"/>
@@ -781,7 +828,7 @@
       <c r="F3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -814,7 +861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -827,7 +874,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -842,7 +889,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
@@ -859,7 +906,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1">
+    <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -876,7 +923,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -889,7 +936,7 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
@@ -904,7 +951,7 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>18</v>
       </c>
@@ -921,7 +968,7 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
@@ -952,7 +999,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1">
+    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
@@ -969,7 +1016,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1">
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
@@ -988,7 +1035,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1001,7 +1048,7 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
+    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -1016,7 +1063,7 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1">
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -1045,7 +1092,7 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1">
+    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1074,7 +1121,7 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1">
+    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1150,7 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1">
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1116,7 +1163,7 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
+    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1178,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1">
+    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
@@ -1156,7 +1203,7 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1">
+    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>29</v>
       </c>
@@ -1167,7 +1214,9 @@
       <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
       </c>
@@ -1177,68 +1226,62 @@
       <c r="H23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="7"/>
+      <c r="I23" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1">
+    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
@@ -1259,7 +1302,7 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1">
+    <row r="28" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
@@ -1280,29 +1323,23 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1314,30 +1351,32 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" ht="18" customHeight="1">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" ht="16.5" customHeight="1">
+    <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
@@ -1348,7 +1387,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1">
+    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -1365,105 +1404,103 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A35" s="11"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" customHeight="1">
-      <c r="A36" s="6" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" customHeight="1">
+    <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" customHeight="1">
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A40" s="8" t="s">
-        <v>22</v>
+    <row r="40" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1476,30 +1513,32 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="1:11" ht="18" customHeight="1">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="1:11" ht="16.5" customHeight="1">
+    <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7" t="s">
@@ -1510,7 +1549,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1">
+    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
@@ -1527,7 +1566,7 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1">
+    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
@@ -1544,7 +1583,7 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1">
+    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>47</v>
       </c>
@@ -1561,7 +1600,7 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="16.5" customHeight="1">
+    <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1578,25 +1617,23 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A47" s="8" t="s">
-        <v>49</v>
-      </c>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G47" s="7"/>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1608,8 +1645,8 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="1:11" ht="18" customHeight="1">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="7"/>
@@ -1617,13 +1654,17 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" ht="16.5" customHeight="1">
+    <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>51</v>
       </c>
@@ -1632,9 +1673,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>15</v>
       </c>
@@ -1642,16 +1681,20 @@
       <c r="J50" s="7"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="1:11" ht="16.5" customHeight="1">
+    <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" s="7" t="s">
         <v>15</v>
       </c>
@@ -1659,7 +1702,7 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="1:11" ht="16.5" customHeight="1">
+    <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>53</v>
       </c>
@@ -1668,7 +1711,9 @@
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="H52" s="7" t="s">
         <v>15</v>
       </c>
@@ -1676,20 +1721,16 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="1:11" ht="16.5" customHeight="1">
+    <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
-      <c r="D53" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
-      <c r="G53" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>15</v>
       </c>
@@ -1697,28 +1738,22 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A55" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1726,28 +1761,30 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" ht="18" customHeight="1">
-      <c r="A57" s="6" t="s">
+    <row r="56" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="7"/>
+    </row>
+    <row r="57" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="7"/>
@@ -1758,10 +1795,12 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="1:11" ht="16.5" customHeight="1">
+    <row r="58" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>58</v>
       </c>
@@ -1772,13 +1811,15 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
+      <c r="I58" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J58" s="7" t="s">
         <v>15</v>
       </c>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="1:11" ht="16.5" customHeight="1">
+    <row r="59" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1836,7 @@
       </c>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="1:11" ht="16.5" customHeight="1">
+    <row r="60" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>60</v>
       </c>
@@ -1806,16 +1847,12 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
-      <c r="I60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A61" s="8" t="s">
+    <row r="61" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="7"/>
@@ -1826,12 +1863,10 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="J61" s="7"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="1:11" ht="16.5" customHeight="1">
+    <row r="62" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>62</v>
       </c>
@@ -1844,198 +1879,216 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="1:11" ht="18" customHeight="1">
-      <c r="A63" s="6" t="s">
+      <c r="K62" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A64" s="8" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7" t="s">
+      <c r="B65" s="13"/>
+      <c r="C65" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" ht="18">
-      <c r="A66" s="6" t="s">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="14" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="E66" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
+      <c r="I66" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="K66" s="13"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="13"/>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13"/>
+      <c r="D67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="13"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="15" t="s">
+      <c r="F67" s="13"/>
+      <c r="G67" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="13"/>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="15" t="s">
+      <c r="D68" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="E68" s="13"/>
       <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="15" t="s">
+      <c r="G68" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J68" s="15" t="s">
+      <c r="H68" s="15" t="s">
         <v>15</v>
       </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
       <c r="K68" s="13"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="13"/>
+      <c r="E69" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="13"/>
       <c r="F69" s="13"/>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
+      <c r="J69" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="K69" s="13"/>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="14" t="s">
-        <v>69</v>
-      </c>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
-      <c r="D70" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D70" s="13"/>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="14" t="s">
-        <v>70</v>
+    <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
-      <c r="E71" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
-      <c r="I71" s="15" t="s">
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K71" s="13"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="16"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
       <c r="D72" s="13"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
+      <c r="F72" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="G72" s="13"/>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
     </row>
-    <row r="73" spans="1:11" ht="18">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
+      <c r="C73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>72</v>
       </c>
@@ -2043,25 +2096,33 @@
       <c r="C74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="D74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="F74" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
+      <c r="G74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="C75" s="13"/>
       <c r="D75" s="15" t="s">
         <v>15</v>
       </c>
@@ -2083,162 +2144,132 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="14" t="s">
-        <v>74</v>
-      </c>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
       <c r="B76" s="13"/>
-      <c r="C76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
     </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="14" t="s">
-        <v>75</v>
+    <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
-      <c r="D77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
       <c r="J77" s="13"/>
       <c r="K77" s="13"/>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="16"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
+      <c r="F78" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
     </row>
-    <row r="79" spans="1:11" ht="18">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="C79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>77</v>
       </c>
       <c r="B80" s="13"/>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F80" s="13"/>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="15" t="s">
+      <c r="I80" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="J80" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="K80" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I81" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2251,7 +2282,7 @@
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2264,7 +2295,7 @@
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2277,7 +2308,7 @@
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2290,7 +2321,7 @@
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2303,7 +2334,7 @@
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2316,7 +2347,7 @@
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2329,7 +2360,7 @@
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2342,7 +2373,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2355,7 +2386,7 @@
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2368,7 +2399,7 @@
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2381,7 +2412,7 @@
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2394,7 +2425,7 @@
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2407,7 +2438,7 @@
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2420,7 +2451,7 @@
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2433,7 +2464,7 @@
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2446,7 +2477,7 @@
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2459,7 +2490,7 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2472,7 +2503,7 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2485,7 +2516,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2498,7 +2529,7 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2511,7 +2542,7 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2524,7 +2555,7 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2537,7 +2568,7 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2550,7 +2581,7 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2563,7 +2594,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2576,7 +2607,7 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2589,7 +2620,7 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2602,7 +2633,7 @@
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2615,7 +2646,7 @@
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2628,7 +2659,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2641,7 +2672,7 @@
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2654,7 +2685,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2667,7 +2698,7 @@
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2680,7 +2711,7 @@
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2693,7 +2724,7 @@
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2706,7 +2737,7 @@
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2719,7 +2750,7 @@
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2732,7 +2763,7 @@
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2745,7 +2776,7 @@
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2758,7 +2789,7 @@
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2771,7 +2802,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2784,7 +2815,7 @@
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2797,7 +2828,7 @@
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2810,7 +2841,7 @@
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2823,7 +2854,7 @@
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2836,7 +2867,7 @@
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2849,7 +2880,7 @@
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2862,7 +2893,7 @@
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2875,7 +2906,7 @@
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2888,7 +2919,7 @@
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2901,7 +2932,7 @@
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2914,7 +2945,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2927,7 +2958,7 @@
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2940,7 +2971,7 @@
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2953,7 +2984,7 @@
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2966,7 +2997,7 @@
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2979,7 +3010,7 @@
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2992,7 +3023,7 @@
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -3005,7 +3036,7 @@
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -3018,7 +3049,7 @@
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -3031,7 +3062,7 @@
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -3044,7 +3075,7 @@
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -3057,7 +3088,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -3070,7 +3101,7 @@
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -3083,7 +3114,7 @@
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -3096,7 +3127,7 @@
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -3109,7 +3140,7 @@
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -3122,7 +3153,7 @@
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -3135,7 +3166,7 @@
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -3148,7 +3179,7 @@
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -3161,7 +3192,7 @@
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -3174,7 +3205,7 @@
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -3187,7 +3218,7 @@
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -3200,7 +3231,7 @@
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -3213,7 +3244,7 @@
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -3226,7 +3257,7 @@
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -3239,7 +3270,7 @@
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -3252,7 +3283,7 @@
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -3265,7 +3296,7 @@
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -3278,7 +3309,7 @@
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -3291,7 +3322,7 @@
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -3304,7 +3335,7 @@
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -3317,7 +3348,7 @@
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -3330,7 +3361,7 @@
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -3343,7 +3374,7 @@
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -3356,7 +3387,7 @@
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -3369,7 +3400,7 @@
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -3382,7 +3413,7 @@
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -3395,7 +3426,7 @@
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -3408,7 +3439,7 @@
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3421,7 +3452,7 @@
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3434,7 +3465,7 @@
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3447,7 +3478,7 @@
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3460,7 +3491,7 @@
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="1"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3473,7 +3504,7 @@
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="1"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3486,7 +3517,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3499,7 +3530,7 @@
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3512,7 +3543,7 @@
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3525,7 +3556,7 @@
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="1"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3538,7 +3569,7 @@
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="1"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3551,7 +3582,7 @@
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="1"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3564,7 +3595,7 @@
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="1"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3577,7 +3608,7 @@
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="1"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3590,7 +3621,7 @@
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="1"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3603,7 +3634,7 @@
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3616,7 +3647,7 @@
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3629,7 +3660,7 @@
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="1"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3642,7 +3673,7 @@
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="1"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3655,7 +3686,7 @@
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="1"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3668,7 +3699,7 @@
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="1"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3681,7 +3712,7 @@
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3694,7 +3725,7 @@
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="1"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3707,7 +3738,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3720,7 +3751,7 @@
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="1"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3733,7 +3764,7 @@
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="1"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3746,7 +3777,7 @@
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3759,7 +3790,7 @@
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3772,7 +3803,7 @@
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3785,7 +3816,7 @@
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3798,7 +3829,7 @@
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -3811,7 +3842,7 @@
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -3824,7 +3855,7 @@
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -3837,7 +3868,7 @@
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="1"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -3850,7 +3881,7 @@
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -3863,7 +3894,7 @@
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -3876,7 +3907,7 @@
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="1"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -3889,7 +3920,7 @@
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -3902,7 +3933,7 @@
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -3915,7 +3946,7 @@
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -3928,7 +3959,7 @@
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -3941,7 +3972,7 @@
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -3954,7 +3985,7 @@
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -3967,7 +3998,7 @@
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -3980,7 +4011,7 @@
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -3993,7 +4024,7 @@
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -4006,7 +4037,7 @@
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -4019,7 +4050,7 @@
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -4032,7 +4063,7 @@
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -4045,7 +4076,7 @@
       <c r="J221" s="2"/>
       <c r="K221" s="2"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -4058,7 +4089,7 @@
       <c r="J222" s="2"/>
       <c r="K222" s="2"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -4071,7 +4102,7 @@
       <c r="J223" s="2"/>
       <c r="K223" s="2"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -4084,7 +4115,7 @@
       <c r="J224" s="2"/>
       <c r="K224" s="2"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -4097,7 +4128,7 @@
       <c r="J225" s="2"/>
       <c r="K225" s="2"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -4110,7 +4141,7 @@
       <c r="J226" s="2"/>
       <c r="K226" s="2"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -4123,7 +4154,7 @@
       <c r="J227" s="2"/>
       <c r="K227" s="2"/>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -4136,7 +4167,7 @@
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -4149,7 +4180,7 @@
       <c r="J229" s="2"/>
       <c r="K229" s="2"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -4162,7 +4193,7 @@
       <c r="J230" s="2"/>
       <c r="K230" s="2"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -4175,7 +4206,7 @@
       <c r="J231" s="2"/>
       <c r="K231" s="2"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -4188,7 +4219,7 @@
       <c r="J232" s="2"/>
       <c r="K232" s="2"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -4201,7 +4232,7 @@
       <c r="J233" s="2"/>
       <c r="K233" s="2"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -4214,7 +4245,7 @@
       <c r="J234" s="2"/>
       <c r="K234" s="2"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -4227,7 +4258,7 @@
       <c r="J235" s="2"/>
       <c r="K235" s="2"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -4240,7 +4271,7 @@
       <c r="J236" s="2"/>
       <c r="K236" s="2"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -4253,7 +4284,7 @@
       <c r="J237" s="2"/>
       <c r="K237" s="2"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -4266,7 +4297,7 @@
       <c r="J238" s="2"/>
       <c r="K238" s="2"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -4279,7 +4310,7 @@
       <c r="J239" s="2"/>
       <c r="K239" s="2"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -4292,7 +4323,7 @@
       <c r="J240" s="2"/>
       <c r="K240" s="2"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -4305,7 +4336,7 @@
       <c r="J241" s="2"/>
       <c r="K241" s="2"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="1"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -4318,7 +4349,7 @@
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="1"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -4331,7 +4362,7 @@
       <c r="J243" s="2"/>
       <c r="K243" s="2"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -4344,7 +4375,7 @@
       <c r="J244" s="2"/>
       <c r="K244" s="2"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -4357,7 +4388,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -4370,7 +4401,7 @@
       <c r="J246" s="2"/>
       <c r="K246" s="2"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -4383,7 +4414,7 @@
       <c r="J247" s="2"/>
       <c r="K247" s="2"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -4396,7 +4427,7 @@
       <c r="J248" s="2"/>
       <c r="K248" s="2"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -4409,7 +4440,7 @@
       <c r="J249" s="2"/>
       <c r="K249" s="2"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -4422,7 +4453,7 @@
       <c r="J250" s="2"/>
       <c r="K250" s="2"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="1"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -4435,7 +4466,7 @@
       <c r="J251" s="2"/>
       <c r="K251" s="2"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -4448,7 +4479,7 @@
       <c r="J252" s="2"/>
       <c r="K252" s="2"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -4461,7 +4492,7 @@
       <c r="J253" s="2"/>
       <c r="K253" s="2"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="1"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -4474,7 +4505,7 @@
       <c r="J254" s="2"/>
       <c r="K254" s="2"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -4487,7 +4518,7 @@
       <c r="J255" s="2"/>
       <c r="K255" s="2"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -4500,7 +4531,7 @@
       <c r="J256" s="2"/>
       <c r="K256" s="2"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="1"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -4513,7 +4544,7 @@
       <c r="J257" s="2"/>
       <c r="K257" s="2"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="1"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -4526,7 +4557,7 @@
       <c r="J258" s="2"/>
       <c r="K258" s="2"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -4539,7 +4570,7 @@
       <c r="J259" s="2"/>
       <c r="K259" s="2"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="1"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -4552,7 +4583,7 @@
       <c r="J260" s="2"/>
       <c r="K260" s="2"/>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="1"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -4565,7 +4596,7 @@
       <c r="J261" s="2"/>
       <c r="K261" s="2"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -4578,7 +4609,7 @@
       <c r="J262" s="2"/>
       <c r="K262" s="2"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="1"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -4591,7 +4622,7 @@
       <c r="J263" s="2"/>
       <c r="K263" s="2"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="1"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -4604,7 +4635,7 @@
       <c r="J264" s="2"/>
       <c r="K264" s="2"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="1"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -4617,7 +4648,7 @@
       <c r="J265" s="2"/>
       <c r="K265" s="2"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="1"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -4630,7 +4661,7 @@
       <c r="J266" s="2"/>
       <c r="K266" s="2"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="1"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -4643,7 +4674,7 @@
       <c r="J267" s="2"/>
       <c r="K267" s="2"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="1"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -4656,7 +4687,7 @@
       <c r="J268" s="2"/>
       <c r="K268" s="2"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="1"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -4669,7 +4700,7 @@
       <c r="J269" s="2"/>
       <c r="K269" s="2"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="1"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -4682,7 +4713,7 @@
       <c r="J270" s="2"/>
       <c r="K270" s="2"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="1"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -4695,7 +4726,7 @@
       <c r="J271" s="2"/>
       <c r="K271" s="2"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="1"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -4708,7 +4739,7 @@
       <c r="J272" s="2"/>
       <c r="K272" s="2"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="1"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -4721,7 +4752,7 @@
       <c r="J273" s="2"/>
       <c r="K273" s="2"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="1"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -4734,7 +4765,7 @@
       <c r="J274" s="2"/>
       <c r="K274" s="2"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="1"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -4747,7 +4778,7 @@
       <c r="J275" s="2"/>
       <c r="K275" s="2"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -4760,7 +4791,7 @@
       <c r="J276" s="2"/>
       <c r="K276" s="2"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="1"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -4773,7 +4804,7 @@
       <c r="J277" s="2"/>
       <c r="K277" s="2"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="1"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -4786,7 +4817,7 @@
       <c r="J278" s="2"/>
       <c r="K278" s="2"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="1"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -4799,7 +4830,7 @@
       <c r="J279" s="2"/>
       <c r="K279" s="2"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="1"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -4812,7 +4843,7 @@
       <c r="J280" s="2"/>
       <c r="K280" s="2"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="1"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -4825,7 +4856,7 @@
       <c r="J281" s="2"/>
       <c r="K281" s="2"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -4838,7 +4869,7 @@
       <c r="J282" s="2"/>
       <c r="K282" s="2"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="1"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -4851,7 +4882,7 @@
       <c r="J283" s="2"/>
       <c r="K283" s="2"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="1"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -4864,7 +4895,7 @@
       <c r="J284" s="2"/>
       <c r="K284" s="2"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -4877,7 +4908,7 @@
       <c r="J285" s="2"/>
       <c r="K285" s="2"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="1"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -4890,7 +4921,7 @@
       <c r="J286" s="2"/>
       <c r="K286" s="2"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="1"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -4903,7 +4934,7 @@
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="1"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -4916,7 +4947,7 @@
       <c r="J288" s="2"/>
       <c r="K288" s="2"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="1"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -4929,7 +4960,7 @@
       <c r="J289" s="2"/>
       <c r="K289" s="2"/>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="1"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -4942,7 +4973,7 @@
       <c r="J290" s="2"/>
       <c r="K290" s="2"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="1"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -4955,7 +4986,7 @@
       <c r="J291" s="2"/>
       <c r="K291" s="2"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -4968,7 +4999,7 @@
       <c r="J292" s="2"/>
       <c r="K292" s="2"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="1"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -4981,7 +5012,7 @@
       <c r="J293" s="2"/>
       <c r="K293" s="2"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="1"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -4994,7 +5025,7 @@
       <c r="J294" s="2"/>
       <c r="K294" s="2"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="1"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -5007,7 +5038,7 @@
       <c r="J295" s="2"/>
       <c r="K295" s="2"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -5020,7 +5051,7 @@
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="1"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -5033,7 +5064,7 @@
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="1"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -5046,7 +5077,7 @@
       <c r="J298" s="2"/>
       <c r="K298" s="2"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="1"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -5059,7 +5090,7 @@
       <c r="J299" s="2"/>
       <c r="K299" s="2"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="1"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -5072,7 +5103,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="1"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -5085,7 +5116,7 @@
       <c r="J301" s="2"/>
       <c r="K301" s="2"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="1"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -5098,7 +5129,7 @@
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="1"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -5111,7 +5142,7 @@
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="1"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -5124,7 +5155,7 @@
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="1"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -5137,7 +5168,7 @@
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="1"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -5150,7 +5181,7 @@
       <c r="J306" s="2"/>
       <c r="K306" s="2"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="1"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -5163,7 +5194,7 @@
       <c r="J307" s="2"/>
       <c r="K307" s="2"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -5176,7 +5207,7 @@
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="1"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -5189,7 +5220,7 @@
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="1"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -5202,7 +5233,7 @@
       <c r="J310" s="2"/>
       <c r="K310" s="2"/>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="1"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -5215,7 +5246,7 @@
       <c r="J311" s="2"/>
       <c r="K311" s="2"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="1"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -5228,7 +5259,7 @@
       <c r="J312" s="2"/>
       <c r="K312" s="2"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="1"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -5241,7 +5272,7 @@
       <c r="J313" s="2"/>
       <c r="K313" s="2"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="1"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -5254,7 +5285,7 @@
       <c r="J314" s="2"/>
       <c r="K314" s="2"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="1"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -5267,7 +5298,7 @@
       <c r="J315" s="2"/>
       <c r="K315" s="2"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="1"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -5280,7 +5311,7 @@
       <c r="J316" s="2"/>
       <c r="K316" s="2"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -5293,7 +5324,7 @@
       <c r="J317" s="2"/>
       <c r="K317" s="2"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="1"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -5306,7 +5337,7 @@
       <c r="J318" s="2"/>
       <c r="K318" s="2"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="1"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -5319,7 +5350,7 @@
       <c r="J319" s="2"/>
       <c r="K319" s="2"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="1"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -5332,7 +5363,7 @@
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="1"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -5345,7 +5376,7 @@
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -5358,7 +5389,7 @@
       <c r="J322" s="2"/>
       <c r="K322" s="2"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="1"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -5371,7 +5402,7 @@
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="1"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -5384,7 +5415,7 @@
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="1"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -5397,7 +5428,7 @@
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="1"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -5410,7 +5441,7 @@
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="1"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -5423,7 +5454,7 @@
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="1"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -5436,7 +5467,7 @@
       <c r="J328" s="2"/>
       <c r="K328" s="2"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="1"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -5449,7 +5480,7 @@
       <c r="J329" s="2"/>
       <c r="K329" s="2"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -5462,7 +5493,7 @@
       <c r="J330" s="2"/>
       <c r="K330" s="2"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="1"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -5475,7 +5506,7 @@
       <c r="J331" s="2"/>
       <c r="K331" s="2"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="1"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -5488,7 +5519,7 @@
       <c r="J332" s="2"/>
       <c r="K332" s="2"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="1"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -5501,7 +5532,7 @@
       <c r="J333" s="2"/>
       <c r="K333" s="2"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="1"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -5514,7 +5545,7 @@
       <c r="J334" s="2"/>
       <c r="K334" s="2"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="1"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -5527,7 +5558,7 @@
       <c r="J335" s="2"/>
       <c r="K335" s="2"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="1"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -5540,7 +5571,7 @@
       <c r="J336" s="2"/>
       <c r="K336" s="2"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="1"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -5553,7 +5584,7 @@
       <c r="J337" s="2"/>
       <c r="K337" s="2"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -5566,7 +5597,7 @@
       <c r="J338" s="2"/>
       <c r="K338" s="2"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="1"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -5579,7 +5610,7 @@
       <c r="J339" s="2"/>
       <c r="K339" s="2"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="1"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -5592,7 +5623,7 @@
       <c r="J340" s="2"/>
       <c r="K340" s="2"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="1"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -5605,7 +5636,7 @@
       <c r="J341" s="2"/>
       <c r="K341" s="2"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="1"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -5618,7 +5649,7 @@
       <c r="J342" s="2"/>
       <c r="K342" s="2"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -5631,7 +5662,7 @@
       <c r="J343" s="2"/>
       <c r="K343" s="2"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="1"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -5644,7 +5675,7 @@
       <c r="J344" s="2"/>
       <c r="K344" s="2"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="1"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -5657,7 +5688,7 @@
       <c r="J345" s="2"/>
       <c r="K345" s="2"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="1"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -5670,7 +5701,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="1"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -5683,7 +5714,7 @@
       <c r="J347" s="2"/>
       <c r="K347" s="2"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="1"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -5696,7 +5727,7 @@
       <c r="J348" s="2"/>
       <c r="K348" s="2"/>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="1"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -5709,7 +5740,7 @@
       <c r="J349" s="2"/>
       <c r="K349" s="2"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="1"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -5722,7 +5753,7 @@
       <c r="J350" s="2"/>
       <c r="K350" s="2"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="1"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -5735,7 +5766,7 @@
       <c r="J351" s="2"/>
       <c r="K351" s="2"/>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="1"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -5748,7 +5779,7 @@
       <c r="J352" s="2"/>
       <c r="K352" s="2"/>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="1"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -5761,7 +5792,7 @@
       <c r="J353" s="2"/>
       <c r="K353" s="2"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -5774,7 +5805,7 @@
       <c r="J354" s="2"/>
       <c r="K354" s="2"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="1"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -5787,7 +5818,7 @@
       <c r="J355" s="2"/>
       <c r="K355" s="2"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="1"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -5800,7 +5831,7 @@
       <c r="J356" s="2"/>
       <c r="K356" s="2"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="1"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -5813,7 +5844,7 @@
       <c r="J357" s="2"/>
       <c r="K357" s="2"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="1"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -5826,7 +5857,7 @@
       <c r="J358" s="2"/>
       <c r="K358" s="2"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="1"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -5839,7 +5870,7 @@
       <c r="J359" s="2"/>
       <c r="K359" s="2"/>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="1"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -5852,7 +5883,7 @@
       <c r="J360" s="2"/>
       <c r="K360" s="2"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="1"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -5865,7 +5896,7 @@
       <c r="J361" s="2"/>
       <c r="K361" s="2"/>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="1"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -5878,7 +5909,7 @@
       <c r="J362" s="2"/>
       <c r="K362" s="2"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="1"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -5891,7 +5922,7 @@
       <c r="J363" s="2"/>
       <c r="K363" s="2"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="1"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -5904,7 +5935,7 @@
       <c r="J364" s="2"/>
       <c r="K364" s="2"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="1"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -5917,7 +5948,7 @@
       <c r="J365" s="2"/>
       <c r="K365" s="2"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="1"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -5930,7 +5961,7 @@
       <c r="J366" s="2"/>
       <c r="K366" s="2"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="1"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -5943,7 +5974,7 @@
       <c r="J367" s="2"/>
       <c r="K367" s="2"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -5956,7 +5987,7 @@
       <c r="J368" s="2"/>
       <c r="K368" s="2"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="1"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -5969,7 +6000,7 @@
       <c r="J369" s="2"/>
       <c r="K369" s="2"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="1"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -5982,7 +6013,7 @@
       <c r="J370" s="2"/>
       <c r="K370" s="2"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="1"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -5995,7 +6026,7 @@
       <c r="J371" s="2"/>
       <c r="K371" s="2"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="1"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -6008,7 +6039,7 @@
       <c r="J372" s="2"/>
       <c r="K372" s="2"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -6021,7 +6052,7 @@
       <c r="J373" s="2"/>
       <c r="K373" s="2"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="1"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -6034,7 +6065,7 @@
       <c r="J374" s="2"/>
       <c r="K374" s="2"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="1"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -6047,7 +6078,7 @@
       <c r="J375" s="2"/>
       <c r="K375" s="2"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="1"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -6060,7 +6091,7 @@
       <c r="J376" s="2"/>
       <c r="K376" s="2"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="1"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -6073,7 +6104,7 @@
       <c r="J377" s="2"/>
       <c r="K377" s="2"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="1"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -6086,7 +6117,7 @@
       <c r="J378" s="2"/>
       <c r="K378" s="2"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="1"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -6099,7 +6130,7 @@
       <c r="J379" s="2"/>
       <c r="K379" s="2"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="1"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -6112,7 +6143,7 @@
       <c r="J380" s="2"/>
       <c r="K380" s="2"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="1"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -6125,7 +6156,7 @@
       <c r="J381" s="2"/>
       <c r="K381" s="2"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="1"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -6138,7 +6169,7 @@
       <c r="J382" s="2"/>
       <c r="K382" s="2"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="1"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -6151,7 +6182,7 @@
       <c r="J383" s="2"/>
       <c r="K383" s="2"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -6164,7 +6195,7 @@
       <c r="J384" s="2"/>
       <c r="K384" s="2"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="1"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -6177,7 +6208,7 @@
       <c r="J385" s="2"/>
       <c r="K385" s="2"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="1"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -6190,7 +6221,7 @@
       <c r="J386" s="2"/>
       <c r="K386" s="2"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="1"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -6203,7 +6234,7 @@
       <c r="J387" s="2"/>
       <c r="K387" s="2"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="1"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -6216,7 +6247,7 @@
       <c r="J388" s="2"/>
       <c r="K388" s="2"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="1"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -6229,7 +6260,7 @@
       <c r="J389" s="2"/>
       <c r="K389" s="2"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="1"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -6242,7 +6273,7 @@
       <c r="J390" s="2"/>
       <c r="K390" s="2"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="1"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -6255,7 +6286,7 @@
       <c r="J391" s="2"/>
       <c r="K391" s="2"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="1"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -6268,7 +6299,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="1"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -6281,7 +6312,7 @@
       <c r="J393" s="2"/>
       <c r="K393" s="2"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="1"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -6294,7 +6325,7 @@
       <c r="J394" s="2"/>
       <c r="K394" s="2"/>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="1"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -6307,7 +6338,7 @@
       <c r="J395" s="2"/>
       <c r="K395" s="2"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="1"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -6320,7 +6351,7 @@
       <c r="J396" s="2"/>
       <c r="K396" s="2"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="1"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -6333,7 +6364,7 @@
       <c r="J397" s="2"/>
       <c r="K397" s="2"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="1"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -6346,7 +6377,7 @@
       <c r="J398" s="2"/>
       <c r="K398" s="2"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="1"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -6359,7 +6390,7 @@
       <c r="J399" s="2"/>
       <c r="K399" s="2"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -6372,7 +6403,7 @@
       <c r="J400" s="2"/>
       <c r="K400" s="2"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="1"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -6385,7 +6416,7 @@
       <c r="J401" s="2"/>
       <c r="K401" s="2"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -6398,7 +6429,7 @@
       <c r="J402" s="2"/>
       <c r="K402" s="2"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -6411,7 +6442,7 @@
       <c r="J403" s="2"/>
       <c r="K403" s="2"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -6424,7 +6455,7 @@
       <c r="J404" s="2"/>
       <c r="K404" s="2"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -6437,7 +6468,7 @@
       <c r="J405" s="2"/>
       <c r="K405" s="2"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="1"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -6450,7 +6481,7 @@
       <c r="J406" s="2"/>
       <c r="K406" s="2"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="1"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -6463,7 +6494,7 @@
       <c r="J407" s="2"/>
       <c r="K407" s="2"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="1"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -6476,7 +6507,7 @@
       <c r="J408" s="2"/>
       <c r="K408" s="2"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="1"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -6489,7 +6520,7 @@
       <c r="J409" s="2"/>
       <c r="K409" s="2"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -6502,7 +6533,7 @@
       <c r="J410" s="2"/>
       <c r="K410" s="2"/>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -6515,7 +6546,7 @@
       <c r="J411" s="2"/>
       <c r="K411" s="2"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -6528,7 +6559,7 @@
       <c r="J412" s="2"/>
       <c r="K412" s="2"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -6541,7 +6572,7 @@
       <c r="J413" s="2"/>
       <c r="K413" s="2"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -6554,7 +6585,7 @@
       <c r="J414" s="2"/>
       <c r="K414" s="2"/>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -6567,7 +6598,7 @@
       <c r="J415" s="2"/>
       <c r="K415" s="2"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -6580,7 +6611,7 @@
       <c r="J416" s="2"/>
       <c r="K416" s="2"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -6593,7 +6624,7 @@
       <c r="J417" s="2"/>
       <c r="K417" s="2"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -6606,7 +6637,7 @@
       <c r="J418" s="2"/>
       <c r="K418" s="2"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -6619,7 +6650,7 @@
       <c r="J419" s="2"/>
       <c r="K419" s="2"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="1"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -6632,7 +6663,7 @@
       <c r="J420" s="2"/>
       <c r="K420" s="2"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="1"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -6645,7 +6676,7 @@
       <c r="J421" s="2"/>
       <c r="K421" s="2"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -6658,7 +6689,7 @@
       <c r="J422" s="2"/>
       <c r="K422" s="2"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -6671,7 +6702,7 @@
       <c r="J423" s="2"/>
       <c r="K423" s="2"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -6684,7 +6715,7 @@
       <c r="J424" s="2"/>
       <c r="K424" s="2"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="1"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -6697,7 +6728,7 @@
       <c r="J425" s="2"/>
       <c r="K425" s="2"/>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="1"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -6710,7 +6741,7 @@
       <c r="J426" s="2"/>
       <c r="K426" s="2"/>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="1"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -6723,7 +6754,7 @@
       <c r="J427" s="2"/>
       <c r="K427" s="2"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="1"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -6736,7 +6767,7 @@
       <c r="J428" s="2"/>
       <c r="K428" s="2"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -6749,7 +6780,7 @@
       <c r="J429" s="2"/>
       <c r="K429" s="2"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -6762,7 +6793,7 @@
       <c r="J430" s="2"/>
       <c r="K430" s="2"/>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -6775,7 +6806,7 @@
       <c r="J431" s="2"/>
       <c r="K431" s="2"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -6788,7 +6819,7 @@
       <c r="J432" s="2"/>
       <c r="K432" s="2"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -6801,7 +6832,7 @@
       <c r="J433" s="2"/>
       <c r="K433" s="2"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -6814,7 +6845,7 @@
       <c r="J434" s="2"/>
       <c r="K434" s="2"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -6827,7 +6858,7 @@
       <c r="J435" s="2"/>
       <c r="K435" s="2"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -6840,7 +6871,7 @@
       <c r="J436" s="2"/>
       <c r="K436" s="2"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -6853,7 +6884,7 @@
       <c r="J437" s="2"/>
       <c r="K437" s="2"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="1"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -6866,7 +6897,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="1"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -6879,7 +6910,7 @@
       <c r="J439" s="2"/>
       <c r="K439" s="2"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="1"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -6892,7 +6923,7 @@
       <c r="J440" s="2"/>
       <c r="K440" s="2"/>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="1"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -6905,7 +6936,7 @@
       <c r="J441" s="2"/>
       <c r="K441" s="2"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -6918,7 +6949,7 @@
       <c r="J442" s="2"/>
       <c r="K442" s="2"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="1"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -6931,7 +6962,7 @@
       <c r="J443" s="2"/>
       <c r="K443" s="2"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="1"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -6944,7 +6975,7 @@
       <c r="J444" s="2"/>
       <c r="K444" s="2"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="1"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -6957,7 +6988,7 @@
       <c r="J445" s="2"/>
       <c r="K445" s="2"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -6970,7 +7001,7 @@
       <c r="J446" s="2"/>
       <c r="K446" s="2"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="1"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -6983,7 +7014,7 @@
       <c r="J447" s="2"/>
       <c r="K447" s="2"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="1"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -6996,7 +7027,7 @@
       <c r="J448" s="2"/>
       <c r="K448" s="2"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -7009,7 +7040,7 @@
       <c r="J449" s="2"/>
       <c r="K449" s="2"/>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="1"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -7022,7 +7053,7 @@
       <c r="J450" s="2"/>
       <c r="K450" s="2"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="1"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -7035,7 +7066,7 @@
       <c r="J451" s="2"/>
       <c r="K451" s="2"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -7048,7 +7079,7 @@
       <c r="J452" s="2"/>
       <c r="K452" s="2"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="1"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -7061,7 +7092,7 @@
       <c r="J453" s="2"/>
       <c r="K453" s="2"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="1"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -7074,7 +7105,7 @@
       <c r="J454" s="2"/>
       <c r="K454" s="2"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="1"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -7087,7 +7118,7 @@
       <c r="J455" s="2"/>
       <c r="K455" s="2"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="1"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -7100,7 +7131,7 @@
       <c r="J456" s="2"/>
       <c r="K456" s="2"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -7113,7 +7144,7 @@
       <c r="J457" s="2"/>
       <c r="K457" s="2"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -7126,7 +7157,7 @@
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -7139,7 +7170,7 @@
       <c r="J459" s="2"/>
       <c r="K459" s="2"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -7152,7 +7183,7 @@
       <c r="J460" s="2"/>
       <c r="K460" s="2"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="1"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -7165,7 +7196,7 @@
       <c r="J461" s="2"/>
       <c r="K461" s="2"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="1"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -7178,7 +7209,7 @@
       <c r="J462" s="2"/>
       <c r="K462" s="2"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="1"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -7191,7 +7222,7 @@
       <c r="J463" s="2"/>
       <c r="K463" s="2"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="1"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -7204,7 +7235,7 @@
       <c r="J464" s="2"/>
       <c r="K464" s="2"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="1"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -7217,7 +7248,7 @@
       <c r="J465" s="2"/>
       <c r="K465" s="2"/>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="1"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -7230,7 +7261,7 @@
       <c r="J466" s="2"/>
       <c r="K466" s="2"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="1"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -7243,7 +7274,7 @@
       <c r="J467" s="2"/>
       <c r="K467" s="2"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="1"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -7256,7 +7287,7 @@
       <c r="J468" s="2"/>
       <c r="K468" s="2"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="1"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -7269,7 +7300,7 @@
       <c r="J469" s="2"/>
       <c r="K469" s="2"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="1"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -7282,7 +7313,7 @@
       <c r="J470" s="2"/>
       <c r="K470" s="2"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="1"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -7295,7 +7326,7 @@
       <c r="J471" s="2"/>
       <c r="K471" s="2"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -7308,7 +7339,7 @@
       <c r="J472" s="2"/>
       <c r="K472" s="2"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="1"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -7321,7 +7352,7 @@
       <c r="J473" s="2"/>
       <c r="K473" s="2"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="1"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -7334,7 +7365,7 @@
       <c r="J474" s="2"/>
       <c r="K474" s="2"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -7347,7 +7378,7 @@
       <c r="J475" s="2"/>
       <c r="K475" s="2"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="1"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -7360,7 +7391,7 @@
       <c r="J476" s="2"/>
       <c r="K476" s="2"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="1"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -7373,7 +7404,7 @@
       <c r="J477" s="2"/>
       <c r="K477" s="2"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="1"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -7386,7 +7417,7 @@
       <c r="J478" s="2"/>
       <c r="K478" s="2"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="1"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -7399,7 +7430,7 @@
       <c r="J479" s="2"/>
       <c r="K479" s="2"/>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="1"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -7412,7 +7443,7 @@
       <c r="J480" s="2"/>
       <c r="K480" s="2"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="1"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -7425,7 +7456,7 @@
       <c r="J481" s="2"/>
       <c r="K481" s="2"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="1"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -7438,7 +7469,7 @@
       <c r="J482" s="2"/>
       <c r="K482" s="2"/>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="1"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -7451,7 +7482,7 @@
       <c r="J483" s="2"/>
       <c r="K483" s="2"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="1"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -7464,7 +7495,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="1"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -7477,7 +7508,7 @@
       <c r="J485" s="2"/>
       <c r="K485" s="2"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="1"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -7490,7 +7521,7 @@
       <c r="J486" s="2"/>
       <c r="K486" s="2"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="1"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -7503,7 +7534,7 @@
       <c r="J487" s="2"/>
       <c r="K487" s="2"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -7516,7 +7547,7 @@
       <c r="J488" s="2"/>
       <c r="K488" s="2"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="1"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -7529,7 +7560,7 @@
       <c r="J489" s="2"/>
       <c r="K489" s="2"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -7542,7 +7573,7 @@
       <c r="J490" s="2"/>
       <c r="K490" s="2"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -7555,7 +7586,7 @@
       <c r="J491" s="2"/>
       <c r="K491" s="2"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="1"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -7568,7 +7599,7 @@
       <c r="J492" s="2"/>
       <c r="K492" s="2"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="1"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -7581,7 +7612,7 @@
       <c r="J493" s="2"/>
       <c r="K493" s="2"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="1"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -7594,7 +7625,7 @@
       <c r="J494" s="2"/>
       <c r="K494" s="2"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="1"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -7607,7 +7638,7 @@
       <c r="J495" s="2"/>
       <c r="K495" s="2"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -7620,7 +7651,7 @@
       <c r="J496" s="2"/>
       <c r="K496" s="2"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -7633,7 +7664,7 @@
       <c r="J497" s="2"/>
       <c r="K497" s="2"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -7646,7 +7677,7 @@
       <c r="J498" s="2"/>
       <c r="K498" s="2"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -7659,7 +7690,7 @@
       <c r="J499" s="2"/>
       <c r="K499" s="2"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -7672,7 +7703,7 @@
       <c r="J500" s="2"/>
       <c r="K500" s="2"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -7685,7 +7716,7 @@
       <c r="J501" s="2"/>
       <c r="K501" s="2"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -7698,7 +7729,7 @@
       <c r="J502" s="2"/>
       <c r="K502" s="2"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -7711,7 +7742,7 @@
       <c r="J503" s="2"/>
       <c r="K503" s="2"/>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -7724,7 +7755,7 @@
       <c r="J504" s="2"/>
       <c r="K504" s="2"/>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -7737,7 +7768,7 @@
       <c r="J505" s="2"/>
       <c r="K505" s="2"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -7750,7 +7781,7 @@
       <c r="J506" s="2"/>
       <c r="K506" s="2"/>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -7763,7 +7794,7 @@
       <c r="J507" s="2"/>
       <c r="K507" s="2"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="1"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -7776,7 +7807,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="1"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -7789,7 +7820,7 @@
       <c r="J509" s="2"/>
       <c r="K509" s="2"/>
     </row>
-    <row r="510" spans="1:11">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="1"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -7802,7 +7833,7 @@
       <c r="J510" s="2"/>
       <c r="K510" s="2"/>
     </row>
-    <row r="511" spans="1:11">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="1"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -7815,7 +7846,7 @@
       <c r="J511" s="2"/>
       <c r="K511" s="2"/>
     </row>
-    <row r="512" spans="1:11">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="1"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -7828,7 +7859,7 @@
       <c r="J512" s="2"/>
       <c r="K512" s="2"/>
     </row>
-    <row r="513" spans="1:11">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="1"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -7841,7 +7872,7 @@
       <c r="J513" s="2"/>
       <c r="K513" s="2"/>
     </row>
-    <row r="514" spans="1:11">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="1"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -7854,7 +7885,7 @@
       <c r="J514" s="2"/>
       <c r="K514" s="2"/>
     </row>
-    <row r="515" spans="1:11">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="1"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -7867,7 +7898,7 @@
       <c r="J515" s="2"/>
       <c r="K515" s="2"/>
     </row>
-    <row r="516" spans="1:11">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="1"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -7880,7 +7911,7 @@
       <c r="J516" s="2"/>
       <c r="K516" s="2"/>
     </row>
-    <row r="517" spans="1:11">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="1"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -7893,7 +7924,7 @@
       <c r="J517" s="2"/>
       <c r="K517" s="2"/>
     </row>
-    <row r="518" spans="1:11">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="1"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -7906,7 +7937,7 @@
       <c r="J518" s="2"/>
       <c r="K518" s="2"/>
     </row>
-    <row r="519" spans="1:11">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="1"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -7919,7 +7950,7 @@
       <c r="J519" s="2"/>
       <c r="K519" s="2"/>
     </row>
-    <row r="520" spans="1:11">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -7932,7 +7963,7 @@
       <c r="J520" s="2"/>
       <c r="K520" s="2"/>
     </row>
-    <row r="521" spans="1:11">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -7945,7 +7976,7 @@
       <c r="J521" s="2"/>
       <c r="K521" s="2"/>
     </row>
-    <row r="522" spans="1:11">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -7958,7 +7989,7 @@
       <c r="J522" s="2"/>
       <c r="K522" s="2"/>
     </row>
-    <row r="523" spans="1:11">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -7971,7 +8002,7 @@
       <c r="J523" s="2"/>
       <c r="K523" s="2"/>
     </row>
-    <row r="524" spans="1:11">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -7984,7 +8015,7 @@
       <c r="J524" s="2"/>
       <c r="K524" s="2"/>
     </row>
-    <row r="525" spans="1:11">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -7997,7 +8028,7 @@
       <c r="J525" s="2"/>
       <c r="K525" s="2"/>
     </row>
-    <row r="526" spans="1:11">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="1"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -8010,7 +8041,7 @@
       <c r="J526" s="2"/>
       <c r="K526" s="2"/>
     </row>
-    <row r="527" spans="1:11">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="1"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -8023,7 +8054,7 @@
       <c r="J527" s="2"/>
       <c r="K527" s="2"/>
     </row>
-    <row r="528" spans="1:11">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="1"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -8036,7 +8067,7 @@
       <c r="J528" s="2"/>
       <c r="K528" s="2"/>
     </row>
-    <row r="529" spans="1:11">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="1"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -8049,7 +8080,7 @@
       <c r="J529" s="2"/>
       <c r="K529" s="2"/>
     </row>
-    <row r="530" spans="1:11">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="1"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -8062,7 +8093,7 @@
       <c r="J530" s="2"/>
       <c r="K530" s="2"/>
     </row>
-    <row r="531" spans="1:11">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="1"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -8075,7 +8106,7 @@
       <c r="J531" s="2"/>
       <c r="K531" s="2"/>
     </row>
-    <row r="532" spans="1:11">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="1"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -8088,7 +8119,7 @@
       <c r="J532" s="2"/>
       <c r="K532" s="2"/>
     </row>
-    <row r="533" spans="1:11">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="1"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -8101,7 +8132,7 @@
       <c r="J533" s="2"/>
       <c r="K533" s="2"/>
     </row>
-    <row r="534" spans="1:11">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="1"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -8114,7 +8145,7 @@
       <c r="J534" s="2"/>
       <c r="K534" s="2"/>
     </row>
-    <row r="535" spans="1:11">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="1"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -8127,7 +8158,7 @@
       <c r="J535" s="2"/>
       <c r="K535" s="2"/>
     </row>
-    <row r="536" spans="1:11">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="1"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -8140,7 +8171,7 @@
       <c r="J536" s="2"/>
       <c r="K536" s="2"/>
     </row>
-    <row r="537" spans="1:11">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -8153,7 +8184,7 @@
       <c r="J537" s="2"/>
       <c r="K537" s="2"/>
     </row>
-    <row r="538" spans="1:11">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="1"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -8166,7 +8197,7 @@
       <c r="J538" s="2"/>
       <c r="K538" s="2"/>
     </row>
-    <row r="539" spans="1:11">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="1"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -8179,7 +8210,7 @@
       <c r="J539" s="2"/>
       <c r="K539" s="2"/>
     </row>
-    <row r="540" spans="1:11">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="1"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -8192,7 +8223,7 @@
       <c r="J540" s="2"/>
       <c r="K540" s="2"/>
     </row>
-    <row r="541" spans="1:11">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="1"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -8205,7 +8236,7 @@
       <c r="J541" s="2"/>
       <c r="K541" s="2"/>
     </row>
-    <row r="542" spans="1:11">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="1"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -8218,7 +8249,7 @@
       <c r="J542" s="2"/>
       <c r="K542" s="2"/>
     </row>
-    <row r="543" spans="1:11">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="1"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -8231,7 +8262,7 @@
       <c r="J543" s="2"/>
       <c r="K543" s="2"/>
     </row>
-    <row r="544" spans="1:11">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="1"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -8244,7 +8275,7 @@
       <c r="J544" s="2"/>
       <c r="K544" s="2"/>
     </row>
-    <row r="545" spans="1:11">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="1"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -8257,7 +8288,7 @@
       <c r="J545" s="2"/>
       <c r="K545" s="2"/>
     </row>
-    <row r="546" spans="1:11">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="1"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -8270,7 +8301,7 @@
       <c r="J546" s="2"/>
       <c r="K546" s="2"/>
     </row>
-    <row r="547" spans="1:11">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="1"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -8283,7 +8314,7 @@
       <c r="J547" s="2"/>
       <c r="K547" s="2"/>
     </row>
-    <row r="548" spans="1:11">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="1"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -8296,7 +8327,7 @@
       <c r="J548" s="2"/>
       <c r="K548" s="2"/>
     </row>
-    <row r="549" spans="1:11">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="1"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -8309,7 +8340,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="1:11">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -8322,7 +8353,7 @@
       <c r="J550" s="2"/>
       <c r="K550" s="2"/>
     </row>
-    <row r="551" spans="1:11">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="1"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -8335,7 +8366,7 @@
       <c r="J551" s="2"/>
       <c r="K551" s="2"/>
     </row>
-    <row r="552" spans="1:11">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="1"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -8348,7 +8379,7 @@
       <c r="J552" s="2"/>
       <c r="K552" s="2"/>
     </row>
-    <row r="553" spans="1:11">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="1"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -8361,7 +8392,7 @@
       <c r="J553" s="2"/>
       <c r="K553" s="2"/>
     </row>
-    <row r="554" spans="1:11">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="1"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -8374,7 +8405,7 @@
       <c r="J554" s="2"/>
       <c r="K554" s="2"/>
     </row>
-    <row r="555" spans="1:11">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="1"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -8387,7 +8418,7 @@
       <c r="J555" s="2"/>
       <c r="K555" s="2"/>
     </row>
-    <row r="556" spans="1:11">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="1"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -8400,7 +8431,7 @@
       <c r="J556" s="2"/>
       <c r="K556" s="2"/>
     </row>
-    <row r="557" spans="1:11">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="1"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -8413,7 +8444,7 @@
       <c r="J557" s="2"/>
       <c r="K557" s="2"/>
     </row>
-    <row r="558" spans="1:11">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="1"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -8426,7 +8457,7 @@
       <c r="J558" s="2"/>
       <c r="K558" s="2"/>
     </row>
-    <row r="559" spans="1:11">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="1"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -8439,7 +8470,7 @@
       <c r="J559" s="2"/>
       <c r="K559" s="2"/>
     </row>
-    <row r="560" spans="1:11">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="1"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -8452,7 +8483,7 @@
       <c r="J560" s="2"/>
       <c r="K560" s="2"/>
     </row>
-    <row r="561" spans="1:11">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -8465,7 +8496,7 @@
       <c r="J561" s="2"/>
       <c r="K561" s="2"/>
     </row>
-    <row r="562" spans="1:11">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="1"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -8478,7 +8509,7 @@
       <c r="J562" s="2"/>
       <c r="K562" s="2"/>
     </row>
-    <row r="563" spans="1:11">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="1"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -8491,7 +8522,7 @@
       <c r="J563" s="2"/>
       <c r="K563" s="2"/>
     </row>
-    <row r="564" spans="1:11">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="1"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -8504,7 +8535,7 @@
       <c r="J564" s="2"/>
       <c r="K564" s="2"/>
     </row>
-    <row r="565" spans="1:11">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="1"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -8517,7 +8548,7 @@
       <c r="J565" s="2"/>
       <c r="K565" s="2"/>
     </row>
-    <row r="566" spans="1:11">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="1"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -8530,7 +8561,7 @@
       <c r="J566" s="2"/>
       <c r="K566" s="2"/>
     </row>
-    <row r="567" spans="1:11">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="1"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -8543,7 +8574,7 @@
       <c r="J567" s="2"/>
       <c r="K567" s="2"/>
     </row>
-    <row r="568" spans="1:11">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="1"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -8556,7 +8587,7 @@
       <c r="J568" s="2"/>
       <c r="K568" s="2"/>
     </row>
-    <row r="569" spans="1:11">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="1"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -8569,7 +8600,7 @@
       <c r="J569" s="2"/>
       <c r="K569" s="2"/>
     </row>
-    <row r="570" spans="1:11">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="1"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -8582,7 +8613,7 @@
       <c r="J570" s="2"/>
       <c r="K570" s="2"/>
     </row>
-    <row r="571" spans="1:11">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="1"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -8595,7 +8626,7 @@
       <c r="J571" s="2"/>
       <c r="K571" s="2"/>
     </row>
-    <row r="572" spans="1:11">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="1"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -8608,7 +8639,7 @@
       <c r="J572" s="2"/>
       <c r="K572" s="2"/>
     </row>
-    <row r="573" spans="1:11">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="1"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -8621,7 +8652,7 @@
       <c r="J573" s="2"/>
       <c r="K573" s="2"/>
     </row>
-    <row r="574" spans="1:11">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="1"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -8634,7 +8665,7 @@
       <c r="J574" s="2"/>
       <c r="K574" s="2"/>
     </row>
-    <row r="575" spans="1:11">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="1"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -8647,7 +8678,7 @@
       <c r="J575" s="2"/>
       <c r="K575" s="2"/>
     </row>
-    <row r="576" spans="1:11">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="1"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -8660,7 +8691,7 @@
       <c r="J576" s="2"/>
       <c r="K576" s="2"/>
     </row>
-    <row r="577" spans="1:11">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="1"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -8673,7 +8704,7 @@
       <c r="J577" s="2"/>
       <c r="K577" s="2"/>
     </row>
-    <row r="578" spans="1:11">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="1"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -8686,7 +8717,7 @@
       <c r="J578" s="2"/>
       <c r="K578" s="2"/>
     </row>
-    <row r="579" spans="1:11">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="1"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -8699,7 +8730,7 @@
       <c r="J579" s="2"/>
       <c r="K579" s="2"/>
     </row>
-    <row r="580" spans="1:11">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="1"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -8712,7 +8743,7 @@
       <c r="J580" s="2"/>
       <c r="K580" s="2"/>
     </row>
-    <row r="581" spans="1:11">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="1"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -8725,7 +8756,7 @@
       <c r="J581" s="2"/>
       <c r="K581" s="2"/>
     </row>
-    <row r="582" spans="1:11">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="1"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -8738,7 +8769,7 @@
       <c r="J582" s="2"/>
       <c r="K582" s="2"/>
     </row>
-    <row r="583" spans="1:11">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="1"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -8751,7 +8782,7 @@
       <c r="J583" s="2"/>
       <c r="K583" s="2"/>
     </row>
-    <row r="584" spans="1:11">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="1"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -8764,7 +8795,7 @@
       <c r="J584" s="2"/>
       <c r="K584" s="2"/>
     </row>
-    <row r="585" spans="1:11">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="1"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -8777,7 +8808,7 @@
       <c r="J585" s="2"/>
       <c r="K585" s="2"/>
     </row>
-    <row r="586" spans="1:11">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="1"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -8790,7 +8821,7 @@
       <c r="J586" s="2"/>
       <c r="K586" s="2"/>
     </row>
-    <row r="587" spans="1:11">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="1"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -8803,7 +8834,7 @@
       <c r="J587" s="2"/>
       <c r="K587" s="2"/>
     </row>
-    <row r="588" spans="1:11">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="1"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -8816,7 +8847,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:11">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="1"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -8829,7 +8860,7 @@
       <c r="J589" s="2"/>
       <c r="K589" s="2"/>
     </row>
-    <row r="590" spans="1:11">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="1"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -8842,7 +8873,7 @@
       <c r="J590" s="2"/>
       <c r="K590" s="2"/>
     </row>
-    <row r="591" spans="1:11">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="1"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -8855,7 +8886,7 @@
       <c r="J591" s="2"/>
       <c r="K591" s="2"/>
     </row>
-    <row r="592" spans="1:11">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="1"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -8868,7 +8899,7 @@
       <c r="J592" s="2"/>
       <c r="K592" s="2"/>
     </row>
-    <row r="593" spans="1:11">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="1"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -8881,7 +8912,7 @@
       <c r="J593" s="2"/>
       <c r="K593" s="2"/>
     </row>
-    <row r="594" spans="1:11">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="1"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -8894,7 +8925,7 @@
       <c r="J594" s="2"/>
       <c r="K594" s="2"/>
     </row>
-    <row r="595" spans="1:11">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="1"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -8907,7 +8938,7 @@
       <c r="J595" s="2"/>
       <c r="K595" s="2"/>
     </row>
-    <row r="596" spans="1:11">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="1"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -8920,7 +8951,7 @@
       <c r="J596" s="2"/>
       <c r="K596" s="2"/>
     </row>
-    <row r="597" spans="1:11">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="1"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -8933,7 +8964,7 @@
       <c r="J597" s="2"/>
       <c r="K597" s="2"/>
     </row>
-    <row r="598" spans="1:11">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="1"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -8946,7 +8977,7 @@
       <c r="J598" s="2"/>
       <c r="K598" s="2"/>
     </row>
-    <row r="599" spans="1:11">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="1"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -8959,7 +8990,7 @@
       <c r="J599" s="2"/>
       <c r="K599" s="2"/>
     </row>
-    <row r="600" spans="1:11">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="1"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -8972,7 +9003,7 @@
       <c r="J600" s="2"/>
       <c r="K600" s="2"/>
     </row>
-    <row r="601" spans="1:11">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="1"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -8985,7 +9016,7 @@
       <c r="J601" s="2"/>
       <c r="K601" s="2"/>
     </row>
-    <row r="602" spans="1:11">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="1"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -8998,7 +9029,7 @@
       <c r="J602" s="2"/>
       <c r="K602" s="2"/>
     </row>
-    <row r="603" spans="1:11">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="1"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -9011,7 +9042,7 @@
       <c r="J603" s="2"/>
       <c r="K603" s="2"/>
     </row>
-    <row r="604" spans="1:11">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="1"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -9024,7 +9055,7 @@
       <c r="J604" s="2"/>
       <c r="K604" s="2"/>
     </row>
-    <row r="605" spans="1:11">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="1"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -9037,7 +9068,7 @@
       <c r="J605" s="2"/>
       <c r="K605" s="2"/>
     </row>
-    <row r="606" spans="1:11">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="1"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -9050,7 +9081,7 @@
       <c r="J606" s="2"/>
       <c r="K606" s="2"/>
     </row>
-    <row r="607" spans="1:11">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="1"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -9063,7 +9094,7 @@
       <c r="J607" s="2"/>
       <c r="K607" s="2"/>
     </row>
-    <row r="608" spans="1:11">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="1"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -9076,7 +9107,7 @@
       <c r="J608" s="2"/>
       <c r="K608" s="2"/>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="1"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -9089,7 +9120,7 @@
       <c r="J609" s="2"/>
       <c r="K609" s="2"/>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="1"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -9102,7 +9133,7 @@
       <c r="J610" s="2"/>
       <c r="K610" s="2"/>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="1"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -9115,7 +9146,7 @@
       <c r="J611" s="2"/>
       <c r="K611" s="2"/>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="1"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -9128,7 +9159,7 @@
       <c r="J612" s="2"/>
       <c r="K612" s="2"/>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="1"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -9141,7 +9172,7 @@
       <c r="J613" s="2"/>
       <c r="K613" s="2"/>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="1"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -9154,7 +9185,7 @@
       <c r="J614" s="2"/>
       <c r="K614" s="2"/>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="1"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -9167,7 +9198,7 @@
       <c r="J615" s="2"/>
       <c r="K615" s="2"/>
     </row>
-    <row r="616" spans="1:11">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="1"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -9180,7 +9211,7 @@
       <c r="J616" s="2"/>
       <c r="K616" s="2"/>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="1"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -9193,7 +9224,7 @@
       <c r="J617" s="2"/>
       <c r="K617" s="2"/>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="1"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -9206,7 +9237,7 @@
       <c r="J618" s="2"/>
       <c r="K618" s="2"/>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="1"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -9219,7 +9250,7 @@
       <c r="J619" s="2"/>
       <c r="K619" s="2"/>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="1"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -9232,7 +9263,7 @@
       <c r="J620" s="2"/>
       <c r="K620" s="2"/>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="1"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -9245,7 +9276,7 @@
       <c r="J621" s="2"/>
       <c r="K621" s="2"/>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="1"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -9258,7 +9289,7 @@
       <c r="J622" s="2"/>
       <c r="K622" s="2"/>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="1"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -9271,7 +9302,7 @@
       <c r="J623" s="2"/>
       <c r="K623" s="2"/>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="1"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -9284,7 +9315,7 @@
       <c r="J624" s="2"/>
       <c r="K624" s="2"/>
     </row>
-    <row r="625" spans="1:11">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="1"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -9297,7 +9328,7 @@
       <c r="J625" s="2"/>
       <c r="K625" s="2"/>
     </row>
-    <row r="626" spans="1:11">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="1"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -9310,7 +9341,7 @@
       <c r="J626" s="2"/>
       <c r="K626" s="2"/>
     </row>
-    <row r="627" spans="1:11">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="1"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -9323,7 +9354,7 @@
       <c r="J627" s="2"/>
       <c r="K627" s="2"/>
     </row>
-    <row r="628" spans="1:11">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="1"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -9336,7 +9367,7 @@
       <c r="J628" s="2"/>
       <c r="K628" s="2"/>
     </row>
-    <row r="629" spans="1:11">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="1"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -9349,7 +9380,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="1:11">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="1"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -9362,7 +9393,7 @@
       <c r="J630" s="2"/>
       <c r="K630" s="2"/>
     </row>
-    <row r="631" spans="1:11">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="1"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -9375,7 +9406,7 @@
       <c r="J631" s="2"/>
       <c r="K631" s="2"/>
     </row>
-    <row r="632" spans="1:11">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="1"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -9388,7 +9419,7 @@
       <c r="J632" s="2"/>
       <c r="K632" s="2"/>
     </row>
-    <row r="633" spans="1:11">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="1"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -9401,7 +9432,7 @@
       <c r="J633" s="2"/>
       <c r="K633" s="2"/>
     </row>
-    <row r="634" spans="1:11">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="1"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -9414,7 +9445,7 @@
       <c r="J634" s="2"/>
       <c r="K634" s="2"/>
     </row>
-    <row r="635" spans="1:11">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="1"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -9427,7 +9458,7 @@
       <c r="J635" s="2"/>
       <c r="K635" s="2"/>
     </row>
-    <row r="636" spans="1:11">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="1"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -9440,7 +9471,7 @@
       <c r="J636" s="2"/>
       <c r="K636" s="2"/>
     </row>
-    <row r="637" spans="1:11">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="1"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -9453,7 +9484,7 @@
       <c r="J637" s="2"/>
       <c r="K637" s="2"/>
     </row>
-    <row r="638" spans="1:11">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="1"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -9466,7 +9497,7 @@
       <c r="J638" s="2"/>
       <c r="K638" s="2"/>
     </row>
-    <row r="639" spans="1:11">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="1"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -9479,7 +9510,7 @@
       <c r="J639" s="2"/>
       <c r="K639" s="2"/>
     </row>
-    <row r="640" spans="1:11">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="1"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -9492,7 +9523,7 @@
       <c r="J640" s="2"/>
       <c r="K640" s="2"/>
     </row>
-    <row r="641" spans="1:11">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="1"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -9505,7 +9536,7 @@
       <c r="J641" s="2"/>
       <c r="K641" s="2"/>
     </row>
-    <row r="642" spans="1:11">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="1"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -9518,7 +9549,7 @@
       <c r="J642" s="2"/>
       <c r="K642" s="2"/>
     </row>
-    <row r="643" spans="1:11">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="1"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -9531,7 +9562,7 @@
       <c r="J643" s="2"/>
       <c r="K643" s="2"/>
     </row>
-    <row r="644" spans="1:11">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="1"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -9544,7 +9575,7 @@
       <c r="J644" s="2"/>
       <c r="K644" s="2"/>
     </row>
-    <row r="645" spans="1:11">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="1"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -9557,7 +9588,7 @@
       <c r="J645" s="2"/>
       <c r="K645" s="2"/>
     </row>
-    <row r="646" spans="1:11">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="1"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -9570,7 +9601,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="1:11">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="1"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -9583,7 +9614,7 @@
       <c r="J647" s="2"/>
       <c r="K647" s="2"/>
     </row>
-    <row r="648" spans="1:11">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="1"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -9596,7 +9627,7 @@
       <c r="J648" s="2"/>
       <c r="K648" s="2"/>
     </row>
-    <row r="649" spans="1:11">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="1"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -9609,7 +9640,7 @@
       <c r="J649" s="2"/>
       <c r="K649" s="2"/>
     </row>
-    <row r="650" spans="1:11">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="1"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -9622,7 +9653,7 @@
       <c r="J650" s="2"/>
       <c r="K650" s="2"/>
     </row>
-    <row r="651" spans="1:11">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="1"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -9635,7 +9666,7 @@
       <c r="J651" s="2"/>
       <c r="K651" s="2"/>
     </row>
-    <row r="652" spans="1:11">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="1"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -9648,7 +9679,7 @@
       <c r="J652" s="2"/>
       <c r="K652" s="2"/>
     </row>
-    <row r="653" spans="1:11">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="1"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -9661,7 +9692,7 @@
       <c r="J653" s="2"/>
       <c r="K653" s="2"/>
     </row>
-    <row r="654" spans="1:11">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="1"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -9674,7 +9705,7 @@
       <c r="J654" s="2"/>
       <c r="K654" s="2"/>
     </row>
-    <row r="655" spans="1:11">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="1"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -9687,7 +9718,7 @@
       <c r="J655" s="2"/>
       <c r="K655" s="2"/>
     </row>
-    <row r="656" spans="1:11">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="1"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -9700,7 +9731,7 @@
       <c r="J656" s="2"/>
       <c r="K656" s="2"/>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="1"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -9713,7 +9744,7 @@
       <c r="J657" s="2"/>
       <c r="K657" s="2"/>
     </row>
-    <row r="658" spans="1:11">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="1"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -9726,7 +9757,7 @@
       <c r="J658" s="2"/>
       <c r="K658" s="2"/>
     </row>
-    <row r="659" spans="1:11">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="1"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -9739,7 +9770,7 @@
       <c r="J659" s="2"/>
       <c r="K659" s="2"/>
     </row>
-    <row r="660" spans="1:11">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="1"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -9752,7 +9783,7 @@
       <c r="J660" s="2"/>
       <c r="K660" s="2"/>
     </row>
-    <row r="661" spans="1:11">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -9765,7 +9796,7 @@
       <c r="J661" s="2"/>
       <c r="K661" s="2"/>
     </row>
-    <row r="662" spans="1:11">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -9778,7 +9809,7 @@
       <c r="J662" s="2"/>
       <c r="K662" s="2"/>
     </row>
-    <row r="663" spans="1:11">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -9791,7 +9822,7 @@
       <c r="J663" s="2"/>
       <c r="K663" s="2"/>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="1"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -9804,7 +9835,7 @@
       <c r="J664" s="2"/>
       <c r="K664" s="2"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="1"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -9817,7 +9848,7 @@
       <c r="J665" s="2"/>
       <c r="K665" s="2"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="1"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -9830,7 +9861,7 @@
       <c r="J666" s="2"/>
       <c r="K666" s="2"/>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="1"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -9843,7 +9874,7 @@
       <c r="J667" s="2"/>
       <c r="K667" s="2"/>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="1"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -9856,7 +9887,7 @@
       <c r="J668" s="2"/>
       <c r="K668" s="2"/>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="1"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -9869,7 +9900,7 @@
       <c r="J669" s="2"/>
       <c r="K669" s="2"/>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="1"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -9882,7 +9913,7 @@
       <c r="J670" s="2"/>
       <c r="K670" s="2"/>
     </row>
-    <row r="671" spans="1:11">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="1"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -9895,7 +9926,7 @@
       <c r="J671" s="2"/>
       <c r="K671" s="2"/>
     </row>
-    <row r="672" spans="1:11">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -9908,7 +9939,7 @@
       <c r="J672" s="2"/>
       <c r="K672" s="2"/>
     </row>
-    <row r="673" spans="1:11">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="1"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -9921,7 +9952,7 @@
       <c r="J673" s="2"/>
       <c r="K673" s="2"/>
     </row>
-    <row r="674" spans="1:11">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="1"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -9934,7 +9965,7 @@
       <c r="J674" s="2"/>
       <c r="K674" s="2"/>
     </row>
-    <row r="675" spans="1:11">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="1"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -9947,7 +9978,7 @@
       <c r="J675" s="2"/>
       <c r="K675" s="2"/>
     </row>
-    <row r="676" spans="1:11">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="1"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -9960,7 +9991,7 @@
       <c r="J676" s="2"/>
       <c r="K676" s="2"/>
     </row>
-    <row r="677" spans="1:11">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="1"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -9973,7 +10004,7 @@
       <c r="J677" s="2"/>
       <c r="K677" s="2"/>
     </row>
-    <row r="678" spans="1:11">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="1"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -9986,7 +10017,7 @@
       <c r="J678" s="2"/>
       <c r="K678" s="2"/>
     </row>
-    <row r="679" spans="1:11">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="1"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -9999,7 +10030,7 @@
       <c r="J679" s="2"/>
       <c r="K679" s="2"/>
     </row>
-    <row r="680" spans="1:11">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="1"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -10012,7 +10043,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="1:11">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="1"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -10025,7 +10056,7 @@
       <c r="J681" s="2"/>
       <c r="K681" s="2"/>
     </row>
-    <row r="682" spans="1:11">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="1"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -10038,7 +10069,7 @@
       <c r="J682" s="2"/>
       <c r="K682" s="2"/>
     </row>
-    <row r="683" spans="1:11">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="1"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -10051,7 +10082,7 @@
       <c r="J683" s="2"/>
       <c r="K683" s="2"/>
     </row>
-    <row r="684" spans="1:11">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="1"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -10064,7 +10095,7 @@
       <c r="J684" s="2"/>
       <c r="K684" s="2"/>
     </row>
-    <row r="685" spans="1:11">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="1"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -10077,7 +10108,7 @@
       <c r="J685" s="2"/>
       <c r="K685" s="2"/>
     </row>
-    <row r="686" spans="1:11">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="1"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -10090,7 +10121,7 @@
       <c r="J686" s="2"/>
       <c r="K686" s="2"/>
     </row>
-    <row r="687" spans="1:11">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="1"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -10103,7 +10134,7 @@
       <c r="J687" s="2"/>
       <c r="K687" s="2"/>
     </row>
-    <row r="688" spans="1:11">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="1"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -10116,7 +10147,7 @@
       <c r="J688" s="2"/>
       <c r="K688" s="2"/>
     </row>
-    <row r="689" spans="1:11">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="1"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -10129,7 +10160,7 @@
       <c r="J689" s="2"/>
       <c r="K689" s="2"/>
     </row>
-    <row r="690" spans="1:11">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="1"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -10142,7 +10173,7 @@
       <c r="J690" s="2"/>
       <c r="K690" s="2"/>
     </row>
-    <row r="691" spans="1:11">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -10155,7 +10186,7 @@
       <c r="J691" s="2"/>
       <c r="K691" s="2"/>
     </row>
-    <row r="692" spans="1:11">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="1"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -10168,7 +10199,7 @@
       <c r="J692" s="2"/>
       <c r="K692" s="2"/>
     </row>
-    <row r="693" spans="1:11">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="1"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -10181,7 +10212,7 @@
       <c r="J693" s="2"/>
       <c r="K693" s="2"/>
     </row>
-    <row r="694" spans="1:11">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="1"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -10194,7 +10225,7 @@
       <c r="J694" s="2"/>
       <c r="K694" s="2"/>
     </row>
-    <row r="695" spans="1:11">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="1"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -10207,7 +10238,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="1:11">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="1"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -10220,7 +10251,7 @@
       <c r="J696" s="2"/>
       <c r="K696" s="2"/>
     </row>
-    <row r="697" spans="1:11">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="1"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -10233,7 +10264,7 @@
       <c r="J697" s="2"/>
       <c r="K697" s="2"/>
     </row>
-    <row r="698" spans="1:11">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="1"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -10246,7 +10277,7 @@
       <c r="J698" s="2"/>
       <c r="K698" s="2"/>
     </row>
-    <row r="699" spans="1:11">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="1"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -10259,7 +10290,7 @@
       <c r="J699" s="2"/>
       <c r="K699" s="2"/>
     </row>
-    <row r="700" spans="1:11">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="1"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -10272,7 +10303,7 @@
       <c r="J700" s="2"/>
       <c r="K700" s="2"/>
     </row>
-    <row r="701" spans="1:11">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="1"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -10285,7 +10316,7 @@
       <c r="J701" s="2"/>
       <c r="K701" s="2"/>
     </row>
-    <row r="702" spans="1:11">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="1"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -10298,7 +10329,7 @@
       <c r="J702" s="2"/>
       <c r="K702" s="2"/>
     </row>
-    <row r="703" spans="1:11">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="1"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -10311,7 +10342,7 @@
       <c r="J703" s="2"/>
       <c r="K703" s="2"/>
     </row>
-    <row r="704" spans="1:11">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="1"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -10324,7 +10355,7 @@
       <c r="J704" s="2"/>
       <c r="K704" s="2"/>
     </row>
-    <row r="705" spans="1:11">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="1"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -10337,7 +10368,7 @@
       <c r="J705" s="2"/>
       <c r="K705" s="2"/>
     </row>
-    <row r="706" spans="1:11">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="1"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -10350,7 +10381,7 @@
       <c r="J706" s="2"/>
       <c r="K706" s="2"/>
     </row>
-    <row r="707" spans="1:11">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="1"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -10363,7 +10394,7 @@
       <c r="J707" s="2"/>
       <c r="K707" s="2"/>
     </row>
-    <row r="708" spans="1:11">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="1"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -10376,7 +10407,7 @@
       <c r="J708" s="2"/>
       <c r="K708" s="2"/>
     </row>
-    <row r="709" spans="1:11">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="1"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -10389,7 +10420,7 @@
       <c r="J709" s="2"/>
       <c r="K709" s="2"/>
     </row>
-    <row r="710" spans="1:11">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="1"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -10402,7 +10433,7 @@
       <c r="J710" s="2"/>
       <c r="K710" s="2"/>
     </row>
-    <row r="711" spans="1:11">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="1"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -10415,7 +10446,7 @@
       <c r="J711" s="2"/>
       <c r="K711" s="2"/>
     </row>
-    <row r="712" spans="1:11">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="1"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -10428,7 +10459,7 @@
       <c r="J712" s="2"/>
       <c r="K712" s="2"/>
     </row>
-    <row r="713" spans="1:11">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="1"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -10441,7 +10472,7 @@
       <c r="J713" s="2"/>
       <c r="K713" s="2"/>
     </row>
-    <row r="714" spans="1:11">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="1"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -10454,7 +10485,7 @@
       <c r="J714" s="2"/>
       <c r="K714" s="2"/>
     </row>
-    <row r="715" spans="1:11">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="1"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -10467,7 +10498,7 @@
       <c r="J715" s="2"/>
       <c r="K715" s="2"/>
     </row>
-    <row r="716" spans="1:11">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="1"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -10480,7 +10511,7 @@
       <c r="J716" s="2"/>
       <c r="K716" s="2"/>
     </row>
-    <row r="717" spans="1:11">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -10493,7 +10524,7 @@
       <c r="J717" s="2"/>
       <c r="K717" s="2"/>
     </row>
-    <row r="718" spans="1:11">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="1"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -10506,7 +10537,7 @@
       <c r="J718" s="2"/>
       <c r="K718" s="2"/>
     </row>
-    <row r="719" spans="1:11">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="1"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -10519,7 +10550,7 @@
       <c r="J719" s="2"/>
       <c r="K719" s="2"/>
     </row>
-    <row r="720" spans="1:11">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="1"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -10532,7 +10563,7 @@
       <c r="J720" s="2"/>
       <c r="K720" s="2"/>
     </row>
-    <row r="721" spans="1:11">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="1"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -10545,7 +10576,7 @@
       <c r="J721" s="2"/>
       <c r="K721" s="2"/>
     </row>
-    <row r="722" spans="1:11">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="1"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -10558,7 +10589,7 @@
       <c r="J722" s="2"/>
       <c r="K722" s="2"/>
     </row>
-    <row r="723" spans="1:11">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="1"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -10571,7 +10602,7 @@
       <c r="J723" s="2"/>
       <c r="K723" s="2"/>
     </row>
-    <row r="724" spans="1:11">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="1"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -10584,7 +10615,7 @@
       <c r="J724" s="2"/>
       <c r="K724" s="2"/>
     </row>
-    <row r="725" spans="1:11">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="1"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -10597,7 +10628,7 @@
       <c r="J725" s="2"/>
       <c r="K725" s="2"/>
     </row>
-    <row r="726" spans="1:11">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="1"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -10610,7 +10641,7 @@
       <c r="J726" s="2"/>
       <c r="K726" s="2"/>
     </row>
-    <row r="727" spans="1:11">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="1"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -10623,7 +10654,7 @@
       <c r="J727" s="2"/>
       <c r="K727" s="2"/>
     </row>
-    <row r="728" spans="1:11">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="1"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -10636,7 +10667,7 @@
       <c r="J728" s="2"/>
       <c r="K728" s="2"/>
     </row>
-    <row r="729" spans="1:11">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="1"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -10649,7 +10680,7 @@
       <c r="J729" s="2"/>
       <c r="K729" s="2"/>
     </row>
-    <row r="730" spans="1:11">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="1"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -10662,7 +10693,7 @@
       <c r="J730" s="2"/>
       <c r="K730" s="2"/>
     </row>
-    <row r="731" spans="1:11">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="1"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -10675,7 +10706,7 @@
       <c r="J731" s="2"/>
       <c r="K731" s="2"/>
     </row>
-    <row r="732" spans="1:11">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="1"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -10688,7 +10719,7 @@
       <c r="J732" s="2"/>
       <c r="K732" s="2"/>
     </row>
-    <row r="733" spans="1:11">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="1"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -10701,7 +10732,7 @@
       <c r="J733" s="2"/>
       <c r="K733" s="2"/>
     </row>
-    <row r="734" spans="1:11">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="1"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -10714,7 +10745,7 @@
       <c r="J734" s="2"/>
       <c r="K734" s="2"/>
     </row>
-    <row r="735" spans="1:11">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="1"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -10727,7 +10758,7 @@
       <c r="J735" s="2"/>
       <c r="K735" s="2"/>
     </row>
-    <row r="736" spans="1:11">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="1"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -10740,7 +10771,7 @@
       <c r="J736" s="2"/>
       <c r="K736" s="2"/>
     </row>
-    <row r="737" spans="1:11">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="1"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -10753,7 +10784,7 @@
       <c r="J737" s="2"/>
       <c r="K737" s="2"/>
     </row>
-    <row r="738" spans="1:11">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="1"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -10766,7 +10797,7 @@
       <c r="J738" s="2"/>
       <c r="K738" s="2"/>
     </row>
-    <row r="739" spans="1:11">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="1"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -10779,7 +10810,7 @@
       <c r="J739" s="2"/>
       <c r="K739" s="2"/>
     </row>
-    <row r="740" spans="1:11">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="1"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -10792,7 +10823,7 @@
       <c r="J740" s="2"/>
       <c r="K740" s="2"/>
     </row>
-    <row r="741" spans="1:11">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="1"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -10805,7 +10836,7 @@
       <c r="J741" s="2"/>
       <c r="K741" s="2"/>
     </row>
-    <row r="742" spans="1:11">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="1"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -10818,7 +10849,7 @@
       <c r="J742" s="2"/>
       <c r="K742" s="2"/>
     </row>
-    <row r="743" spans="1:11">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="1"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -10831,7 +10862,7 @@
       <c r="J743" s="2"/>
       <c r="K743" s="2"/>
     </row>
-    <row r="744" spans="1:11">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="1"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -10844,7 +10875,7 @@
       <c r="J744" s="2"/>
       <c r="K744" s="2"/>
     </row>
-    <row r="745" spans="1:11">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="1"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -10857,7 +10888,7 @@
       <c r="J745" s="2"/>
       <c r="K745" s="2"/>
     </row>
-    <row r="746" spans="1:11">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="1"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -10870,7 +10901,7 @@
       <c r="J746" s="2"/>
       <c r="K746" s="2"/>
     </row>
-    <row r="747" spans="1:11">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="1"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -10883,7 +10914,7 @@
       <c r="J747" s="2"/>
       <c r="K747" s="2"/>
     </row>
-    <row r="748" spans="1:11">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="1"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -10896,7 +10927,7 @@
       <c r="J748" s="2"/>
       <c r="K748" s="2"/>
     </row>
-    <row r="749" spans="1:11">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="1"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -10909,7 +10940,7 @@
       <c r="J749" s="2"/>
       <c r="K749" s="2"/>
     </row>
-    <row r="750" spans="1:11">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="1"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -10922,7 +10953,7 @@
       <c r="J750" s="2"/>
       <c r="K750" s="2"/>
     </row>
-    <row r="751" spans="1:11">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="1"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -10935,7 +10966,7 @@
       <c r="J751" s="2"/>
       <c r="K751" s="2"/>
     </row>
-    <row r="752" spans="1:11">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="1"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -10948,7 +10979,7 @@
       <c r="J752" s="2"/>
       <c r="K752" s="2"/>
     </row>
-    <row r="753" spans="1:11">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -10961,7 +10992,7 @@
       <c r="J753" s="2"/>
       <c r="K753" s="2"/>
     </row>
-    <row r="754" spans="1:11">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -10974,7 +11005,7 @@
       <c r="J754" s="2"/>
       <c r="K754" s="2"/>
     </row>
-    <row r="755" spans="1:11">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -10987,7 +11018,7 @@
       <c r="J755" s="2"/>
       <c r="K755" s="2"/>
     </row>
-    <row r="756" spans="1:11">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -11000,7 +11031,7 @@
       <c r="J756" s="2"/>
       <c r="K756" s="2"/>
     </row>
-    <row r="757" spans="1:11">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -11013,7 +11044,7 @@
       <c r="J757" s="2"/>
       <c r="K757" s="2"/>
     </row>
-    <row r="758" spans="1:11">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -11026,7 +11057,7 @@
       <c r="J758" s="2"/>
       <c r="K758" s="2"/>
     </row>
-    <row r="759" spans="1:11">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -11039,7 +11070,7 @@
       <c r="J759" s="2"/>
       <c r="K759" s="2"/>
     </row>
-    <row r="760" spans="1:11">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -11052,7 +11083,7 @@
       <c r="J760" s="2"/>
       <c r="K760" s="2"/>
     </row>
-    <row r="761" spans="1:11">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -11065,7 +11096,7 @@
       <c r="J761" s="2"/>
       <c r="K761" s="2"/>
     </row>
-    <row r="762" spans="1:11">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -11078,7 +11109,7 @@
       <c r="J762" s="2"/>
       <c r="K762" s="2"/>
     </row>
-    <row r="763" spans="1:11">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -11091,7 +11122,7 @@
       <c r="J763" s="2"/>
       <c r="K763" s="2"/>
     </row>
-    <row r="764" spans="1:11">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -11104,7 +11135,7 @@
       <c r="J764" s="2"/>
       <c r="K764" s="2"/>
     </row>
-    <row r="765" spans="1:11">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -11117,7 +11148,7 @@
       <c r="J765" s="2"/>
       <c r="K765" s="2"/>
     </row>
-    <row r="766" spans="1:11">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -11130,7 +11161,7 @@
       <c r="J766" s="2"/>
       <c r="K766" s="2"/>
     </row>
-    <row r="767" spans="1:11">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -11143,7 +11174,7 @@
       <c r="J767" s="2"/>
       <c r="K767" s="2"/>
     </row>
-    <row r="768" spans="1:11">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -11156,7 +11187,7 @@
       <c r="J768" s="2"/>
       <c r="K768" s="2"/>
     </row>
-    <row r="769" spans="1:11">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -11169,7 +11200,7 @@
       <c r="J769" s="2"/>
       <c r="K769" s="2"/>
     </row>
-    <row r="770" spans="1:11">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -11182,7 +11213,7 @@
       <c r="J770" s="2"/>
       <c r="K770" s="2"/>
     </row>
-    <row r="771" spans="1:11">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -11195,7 +11226,7 @@
       <c r="J771" s="2"/>
       <c r="K771" s="2"/>
     </row>
-    <row r="772" spans="1:11">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -11208,7 +11239,7 @@
       <c r="J772" s="2"/>
       <c r="K772" s="2"/>
     </row>
-    <row r="773" spans="1:11">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -11221,7 +11252,7 @@
       <c r="J773" s="2"/>
       <c r="K773" s="2"/>
     </row>
-    <row r="774" spans="1:11">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -11234,7 +11265,7 @@
       <c r="J774" s="2"/>
       <c r="K774" s="2"/>
     </row>
-    <row r="775" spans="1:11">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -11247,7 +11278,7 @@
       <c r="J775" s="2"/>
       <c r="K775" s="2"/>
     </row>
-    <row r="776" spans="1:11">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -11260,7 +11291,7 @@
       <c r="J776" s="2"/>
       <c r="K776" s="2"/>
     </row>
-    <row r="777" spans="1:11">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -11273,7 +11304,7 @@
       <c r="J777" s="2"/>
       <c r="K777" s="2"/>
     </row>
-    <row r="778" spans="1:11">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -11286,7 +11317,7 @@
       <c r="J778" s="2"/>
       <c r="K778" s="2"/>
     </row>
-    <row r="779" spans="1:11">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -11299,7 +11330,7 @@
       <c r="J779" s="2"/>
       <c r="K779" s="2"/>
     </row>
-    <row r="780" spans="1:11">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -11312,7 +11343,7 @@
       <c r="J780" s="2"/>
       <c r="K780" s="2"/>
     </row>
-    <row r="781" spans="1:11">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -11325,7 +11356,7 @@
       <c r="J781" s="2"/>
       <c r="K781" s="2"/>
     </row>
-    <row r="782" spans="1:11">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -11338,7 +11369,7 @@
       <c r="J782" s="2"/>
       <c r="K782" s="2"/>
     </row>
-    <row r="783" spans="1:11">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -11351,7 +11382,7 @@
       <c r="J783" s="2"/>
       <c r="K783" s="2"/>
     </row>
-    <row r="784" spans="1:11">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -11364,7 +11395,7 @@
       <c r="J784" s="2"/>
       <c r="K784" s="2"/>
     </row>
-    <row r="785" spans="1:11">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="1"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -11377,7 +11408,7 @@
       <c r="J785" s="2"/>
       <c r="K785" s="2"/>
     </row>
-    <row r="786" spans="1:11">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="1"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -11390,7 +11421,7 @@
       <c r="J786" s="2"/>
       <c r="K786" s="2"/>
     </row>
-    <row r="787" spans="1:11">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="1"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -11403,7 +11434,7 @@
       <c r="J787" s="2"/>
       <c r="K787" s="2"/>
     </row>
-    <row r="788" spans="1:11">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="1"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -11416,7 +11447,7 @@
       <c r="J788" s="2"/>
       <c r="K788" s="2"/>
     </row>
-    <row r="789" spans="1:11">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="1"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -11429,7 +11460,7 @@
       <c r="J789" s="2"/>
       <c r="K789" s="2"/>
     </row>
-    <row r="790" spans="1:11">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="1"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -11442,7 +11473,7 @@
       <c r="J790" s="2"/>
       <c r="K790" s="2"/>
     </row>
-    <row r="791" spans="1:11">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="1"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -11455,7 +11486,7 @@
       <c r="J791" s="2"/>
       <c r="K791" s="2"/>
     </row>
-    <row r="792" spans="1:11">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="1"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -11468,7 +11499,7 @@
       <c r="J792" s="2"/>
       <c r="K792" s="2"/>
     </row>
-    <row r="793" spans="1:11">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="1"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -11481,7 +11512,7 @@
       <c r="J793" s="2"/>
       <c r="K793" s="2"/>
     </row>
-    <row r="794" spans="1:11">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="1"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -11494,7 +11525,7 @@
       <c r="J794" s="2"/>
       <c r="K794" s="2"/>
     </row>
-    <row r="795" spans="1:11">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A795" s="1"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -11507,7 +11538,7 @@
       <c r="J795" s="2"/>
       <c r="K795" s="2"/>
     </row>
-    <row r="796" spans="1:11">
+    <row r="796" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A796" s="1"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -11520,7 +11551,7 @@
       <c r="J796" s="2"/>
       <c r="K796" s="2"/>
     </row>
-    <row r="797" spans="1:11">
+    <row r="797" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A797" s="1"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -11533,7 +11564,7 @@
       <c r="J797" s="2"/>
       <c r="K797" s="2"/>
     </row>
-    <row r="798" spans="1:11">
+    <row r="798" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A798" s="1"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -11546,7 +11577,7 @@
       <c r="J798" s="2"/>
       <c r="K798" s="2"/>
     </row>
-    <row r="799" spans="1:11">
+    <row r="799" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A799" s="1"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -11559,7 +11590,7 @@
       <c r="J799" s="2"/>
       <c r="K799" s="2"/>
     </row>
-    <row r="800" spans="1:11">
+    <row r="800" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A800" s="1"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -11572,7 +11603,7 @@
       <c r="J800" s="2"/>
       <c r="K800" s="2"/>
     </row>
-    <row r="801" spans="1:11">
+    <row r="801" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A801" s="1"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -11585,7 +11616,7 @@
       <c r="J801" s="2"/>
       <c r="K801" s="2"/>
     </row>
-    <row r="802" spans="1:11">
+    <row r="802" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A802" s="1"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -11598,7 +11629,7 @@
       <c r="J802" s="2"/>
       <c r="K802" s="2"/>
     </row>
-    <row r="803" spans="1:11">
+    <row r="803" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A803" s="1"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -11611,7 +11642,7 @@
       <c r="J803" s="2"/>
       <c r="K803" s="2"/>
     </row>
-    <row r="804" spans="1:11">
+    <row r="804" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A804" s="1"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -11624,7 +11655,7 @@
       <c r="J804" s="2"/>
       <c r="K804" s="2"/>
     </row>
-    <row r="805" spans="1:11">
+    <row r="805" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A805" s="1"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -11637,7 +11668,7 @@
       <c r="J805" s="2"/>
       <c r="K805" s="2"/>
     </row>
-    <row r="806" spans="1:11">
+    <row r="806" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A806" s="1"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -11650,7 +11681,7 @@
       <c r="J806" s="2"/>
       <c r="K806" s="2"/>
     </row>
-    <row r="807" spans="1:11">
+    <row r="807" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A807" s="1"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -11663,7 +11694,7 @@
       <c r="J807" s="2"/>
       <c r="K807" s="2"/>
     </row>
-    <row r="808" spans="1:11">
+    <row r="808" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A808" s="1"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -11676,7 +11707,7 @@
       <c r="J808" s="2"/>
       <c r="K808" s="2"/>
     </row>
-    <row r="809" spans="1:11">
+    <row r="809" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A809" s="1"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -11689,7 +11720,7 @@
       <c r="J809" s="2"/>
       <c r="K809" s="2"/>
     </row>
-    <row r="810" spans="1:11">
+    <row r="810" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A810" s="1"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -11702,7 +11733,7 @@
       <c r="J810" s="2"/>
       <c r="K810" s="2"/>
     </row>
-    <row r="811" spans="1:11">
+    <row r="811" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A811" s="1"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -11715,7 +11746,7 @@
       <c r="J811" s="2"/>
       <c r="K811" s="2"/>
     </row>
-    <row r="812" spans="1:11">
+    <row r="812" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A812" s="1"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -11728,7 +11759,7 @@
       <c r="J812" s="2"/>
       <c r="K812" s="2"/>
     </row>
-    <row r="813" spans="1:11">
+    <row r="813" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A813" s="1"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -11741,7 +11772,7 @@
       <c r="J813" s="2"/>
       <c r="K813" s="2"/>
     </row>
-    <row r="814" spans="1:11">
+    <row r="814" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A814" s="1"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -11754,7 +11785,7 @@
       <c r="J814" s="2"/>
       <c r="K814" s="2"/>
     </row>
-    <row r="815" spans="1:11">
+    <row r="815" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A815" s="1"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -11767,7 +11798,7 @@
       <c r="J815" s="2"/>
       <c r="K815" s="2"/>
     </row>
-    <row r="816" spans="1:11">
+    <row r="816" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A816" s="1"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -11780,7 +11811,7 @@
       <c r="J816" s="2"/>
       <c r="K816" s="2"/>
     </row>
-    <row r="817" spans="1:11">
+    <row r="817" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A817" s="1"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -11793,7 +11824,7 @@
       <c r="J817" s="2"/>
       <c r="K817" s="2"/>
     </row>
-    <row r="818" spans="1:11">
+    <row r="818" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A818" s="1"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -11806,7 +11837,7 @@
       <c r="J818" s="2"/>
       <c r="K818" s="2"/>
     </row>
-    <row r="819" spans="1:11">
+    <row r="819" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A819" s="1"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -11819,7 +11850,7 @@
       <c r="J819" s="2"/>
       <c r="K819" s="2"/>
     </row>
-    <row r="820" spans="1:11">
+    <row r="820" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A820" s="1"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -11832,7 +11863,7 @@
       <c r="J820" s="2"/>
       <c r="K820" s="2"/>
     </row>
-    <row r="821" spans="1:11">
+    <row r="821" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A821" s="1"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -11845,7 +11876,7 @@
       <c r="J821" s="2"/>
       <c r="K821" s="2"/>
     </row>
-    <row r="822" spans="1:11">
+    <row r="822" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A822" s="1"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -11858,7 +11889,7 @@
       <c r="J822" s="2"/>
       <c r="K822" s="2"/>
     </row>
-    <row r="823" spans="1:11">
+    <row r="823" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A823" s="1"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -11871,7 +11902,7 @@
       <c r="J823" s="2"/>
       <c r="K823" s="2"/>
     </row>
-    <row r="824" spans="1:11">
+    <row r="824" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A824" s="1"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -11884,7 +11915,7 @@
       <c r="J824" s="2"/>
       <c r="K824" s="2"/>
     </row>
-    <row r="825" spans="1:11">
+    <row r="825" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A825" s="1"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -11897,7 +11928,7 @@
       <c r="J825" s="2"/>
       <c r="K825" s="2"/>
     </row>
-    <row r="826" spans="1:11">
+    <row r="826" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A826" s="1"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -11910,7 +11941,7 @@
       <c r="J826" s="2"/>
       <c r="K826" s="2"/>
     </row>
-    <row r="827" spans="1:11">
+    <row r="827" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A827" s="1"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -11923,7 +11954,7 @@
       <c r="J827" s="2"/>
       <c r="K827" s="2"/>
     </row>
-    <row r="828" spans="1:11">
+    <row r="828" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A828" s="1"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -11936,7 +11967,7 @@
       <c r="J828" s="2"/>
       <c r="K828" s="2"/>
     </row>
-    <row r="829" spans="1:11">
+    <row r="829" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A829" s="1"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -11949,7 +11980,7 @@
       <c r="J829" s="2"/>
       <c r="K829" s="2"/>
     </row>
-    <row r="830" spans="1:11">
+    <row r="830" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A830" s="1"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -11962,7 +11993,7 @@
       <c r="J830" s="2"/>
       <c r="K830" s="2"/>
     </row>
-    <row r="831" spans="1:11">
+    <row r="831" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A831" s="1"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -11975,7 +12006,7 @@
       <c r="J831" s="2"/>
       <c r="K831" s="2"/>
     </row>
-    <row r="832" spans="1:11">
+    <row r="832" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A832" s="1"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -11988,7 +12019,7 @@
       <c r="J832" s="2"/>
       <c r="K832" s="2"/>
     </row>
-    <row r="833" spans="1:11">
+    <row r="833" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A833" s="1"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -12001,7 +12032,7 @@
       <c r="J833" s="2"/>
       <c r="K833" s="2"/>
     </row>
-    <row r="834" spans="1:11">
+    <row r="834" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A834" s="1"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -12014,7 +12045,7 @@
       <c r="J834" s="2"/>
       <c r="K834" s="2"/>
     </row>
-    <row r="835" spans="1:11">
+    <row r="835" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A835" s="1"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -12027,7 +12058,7 @@
       <c r="J835" s="2"/>
       <c r="K835" s="2"/>
     </row>
-    <row r="836" spans="1:11">
+    <row r="836" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A836" s="1"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -12040,7 +12071,7 @@
       <c r="J836" s="2"/>
       <c r="K836" s="2"/>
     </row>
-    <row r="837" spans="1:11">
+    <row r="837" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A837" s="1"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -12053,7 +12084,7 @@
       <c r="J837" s="2"/>
       <c r="K837" s="2"/>
     </row>
-    <row r="838" spans="1:11">
+    <row r="838" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A838" s="1"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -12066,7 +12097,7 @@
       <c r="J838" s="2"/>
       <c r="K838" s="2"/>
     </row>
-    <row r="839" spans="1:11">
+    <row r="839" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A839" s="1"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -12079,7 +12110,7 @@
       <c r="J839" s="2"/>
       <c r="K839" s="2"/>
     </row>
-    <row r="840" spans="1:11">
+    <row r="840" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A840" s="1"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -12092,7 +12123,7 @@
       <c r="J840" s="2"/>
       <c r="K840" s="2"/>
     </row>
-    <row r="841" spans="1:11">
+    <row r="841" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A841" s="1"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -12105,7 +12136,7 @@
       <c r="J841" s="2"/>
       <c r="K841" s="2"/>
     </row>
-    <row r="842" spans="1:11">
+    <row r="842" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A842" s="1"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -12118,7 +12149,7 @@
       <c r="J842" s="2"/>
       <c r="K842" s="2"/>
     </row>
-    <row r="843" spans="1:11">
+    <row r="843" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A843" s="1"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -12131,7 +12162,7 @@
       <c r="J843" s="2"/>
       <c r="K843" s="2"/>
     </row>
-    <row r="844" spans="1:11">
+    <row r="844" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A844" s="1"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -12144,7 +12175,7 @@
       <c r="J844" s="2"/>
       <c r="K844" s="2"/>
     </row>
-    <row r="845" spans="1:11">
+    <row r="845" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A845" s="1"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -12157,7 +12188,7 @@
       <c r="J845" s="2"/>
       <c r="K845" s="2"/>
     </row>
-    <row r="846" spans="1:11">
+    <row r="846" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A846" s="1"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -12170,7 +12201,7 @@
       <c r="J846" s="2"/>
       <c r="K846" s="2"/>
     </row>
-    <row r="847" spans="1:11">
+    <row r="847" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A847" s="1"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -12183,7 +12214,7 @@
       <c r="J847" s="2"/>
       <c r="K847" s="2"/>
     </row>
-    <row r="848" spans="1:11">
+    <row r="848" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A848" s="1"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -12196,7 +12227,7 @@
       <c r="J848" s="2"/>
       <c r="K848" s="2"/>
     </row>
-    <row r="849" spans="1:11">
+    <row r="849" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A849" s="1"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -12209,7 +12240,7 @@
       <c r="J849" s="2"/>
       <c r="K849" s="2"/>
     </row>
-    <row r="850" spans="1:11">
+    <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -12222,7 +12253,7 @@
       <c r="J850" s="2"/>
       <c r="K850" s="2"/>
     </row>
-    <row r="851" spans="1:11">
+    <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" s="1"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -12235,7 +12266,7 @@
       <c r="J851" s="2"/>
       <c r="K851" s="2"/>
     </row>
-    <row r="852" spans="1:11">
+    <row r="852" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A852" s="1"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -12248,7 +12279,7 @@
       <c r="J852" s="2"/>
       <c r="K852" s="2"/>
     </row>
-    <row r="853" spans="1:11">
+    <row r="853" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A853" s="1"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -12261,7 +12292,7 @@
       <c r="J853" s="2"/>
       <c r="K853" s="2"/>
     </row>
-    <row r="854" spans="1:11">
+    <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" s="1"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -12274,7 +12305,7 @@
       <c r="J854" s="2"/>
       <c r="K854" s="2"/>
     </row>
-    <row r="855" spans="1:11">
+    <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" s="1"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -12287,7 +12318,7 @@
       <c r="J855" s="2"/>
       <c r="K855" s="2"/>
     </row>
-    <row r="856" spans="1:11">
+    <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" s="1"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -12300,7 +12331,7 @@
       <c r="J856" s="2"/>
       <c r="K856" s="2"/>
     </row>
-    <row r="857" spans="1:11">
+    <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" s="1"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -12313,7 +12344,7 @@
       <c r="J857" s="2"/>
       <c r="K857" s="2"/>
     </row>
-    <row r="858" spans="1:11">
+    <row r="858" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A858" s="1"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -12326,7 +12357,7 @@
       <c r="J858" s="2"/>
       <c r="K858" s="2"/>
     </row>
-    <row r="859" spans="1:11">
+    <row r="859" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A859" s="1"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -12339,7 +12370,7 @@
       <c r="J859" s="2"/>
       <c r="K859" s="2"/>
     </row>
-    <row r="860" spans="1:11">
+    <row r="860" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A860" s="1"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -12352,7 +12383,7 @@
       <c r="J860" s="2"/>
       <c r="K860" s="2"/>
     </row>
-    <row r="861" spans="1:11">
+    <row r="861" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A861" s="1"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -12365,7 +12396,7 @@
       <c r="J861" s="2"/>
       <c r="K861" s="2"/>
     </row>
-    <row r="862" spans="1:11">
+    <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" s="1"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -12378,7 +12409,7 @@
       <c r="J862" s="2"/>
       <c r="K862" s="2"/>
     </row>
-    <row r="863" spans="1:11">
+    <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" s="1"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -12391,7 +12422,7 @@
       <c r="J863" s="2"/>
       <c r="K863" s="2"/>
     </row>
-    <row r="864" spans="1:11">
+    <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" s="1"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -12404,7 +12435,7 @@
       <c r="J864" s="2"/>
       <c r="K864" s="2"/>
     </row>
-    <row r="865" spans="1:11">
+    <row r="865" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A865" s="1"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -12417,7 +12448,7 @@
       <c r="J865" s="2"/>
       <c r="K865" s="2"/>
     </row>
-    <row r="866" spans="1:11">
+    <row r="866" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A866" s="1"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -12430,7 +12461,7 @@
       <c r="J866" s="2"/>
       <c r="K866" s="2"/>
     </row>
-    <row r="867" spans="1:11">
+    <row r="867" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A867" s="1"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -12443,7 +12474,7 @@
       <c r="J867" s="2"/>
       <c r="K867" s="2"/>
     </row>
-    <row r="868" spans="1:11">
+    <row r="868" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A868" s="1"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -12456,7 +12487,7 @@
       <c r="J868" s="2"/>
       <c r="K868" s="2"/>
     </row>
-    <row r="869" spans="1:11">
+    <row r="869" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A869" s="1"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -12469,7 +12500,7 @@
       <c r="J869" s="2"/>
       <c r="K869" s="2"/>
     </row>
-    <row r="870" spans="1:11">
+    <row r="870" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A870" s="1"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -12482,7 +12513,7 @@
       <c r="J870" s="2"/>
       <c r="K870" s="2"/>
     </row>
-    <row r="871" spans="1:11">
+    <row r="871" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A871" s="1"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -12495,7 +12526,7 @@
       <c r="J871" s="2"/>
       <c r="K871" s="2"/>
     </row>
-    <row r="872" spans="1:11">
+    <row r="872" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A872" s="1"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -12508,7 +12539,7 @@
       <c r="J872" s="2"/>
       <c r="K872" s="2"/>
     </row>
-    <row r="873" spans="1:11">
+    <row r="873" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A873" s="1"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -12521,7 +12552,7 @@
       <c r="J873" s="2"/>
       <c r="K873" s="2"/>
     </row>
-    <row r="874" spans="1:11">
+    <row r="874" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -12534,7 +12565,7 @@
       <c r="J874" s="2"/>
       <c r="K874" s="2"/>
     </row>
-    <row r="875" spans="1:11">
+    <row r="875" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A875" s="1"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -12547,7 +12578,7 @@
       <c r="J875" s="2"/>
       <c r="K875" s="2"/>
     </row>
-    <row r="876" spans="1:11">
+    <row r="876" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A876" s="1"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -12560,7 +12591,7 @@
       <c r="J876" s="2"/>
       <c r="K876" s="2"/>
     </row>
-    <row r="877" spans="1:11">
+    <row r="877" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A877" s="1"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -12573,7 +12604,7 @@
       <c r="J877" s="2"/>
       <c r="K877" s="2"/>
     </row>
-    <row r="878" spans="1:11">
+    <row r="878" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A878" s="1"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -12586,7 +12617,7 @@
       <c r="J878" s="2"/>
       <c r="K878" s="2"/>
     </row>
-    <row r="879" spans="1:11">
+    <row r="879" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A879" s="1"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -12599,7 +12630,7 @@
       <c r="J879" s="2"/>
       <c r="K879" s="2"/>
     </row>
-    <row r="880" spans="1:11">
+    <row r="880" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A880" s="1"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -12612,7 +12643,7 @@
       <c r="J880" s="2"/>
       <c r="K880" s="2"/>
     </row>
-    <row r="881" spans="1:11">
+    <row r="881" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A881" s="1"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -12625,7 +12656,7 @@
       <c r="J881" s="2"/>
       <c r="K881" s="2"/>
     </row>
-    <row r="882" spans="1:11">
+    <row r="882" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A882" s="1"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -12638,7 +12669,7 @@
       <c r="J882" s="2"/>
       <c r="K882" s="2"/>
     </row>
-    <row r="883" spans="1:11">
+    <row r="883" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A883" s="1"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -12651,7 +12682,7 @@
       <c r="J883" s="2"/>
       <c r="K883" s="2"/>
     </row>
-    <row r="884" spans="1:11">
+    <row r="884" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A884" s="1"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -12664,7 +12695,7 @@
       <c r="J884" s="2"/>
       <c r="K884" s="2"/>
     </row>
-    <row r="885" spans="1:11">
+    <row r="885" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A885" s="1"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -12677,7 +12708,7 @@
       <c r="J885" s="2"/>
       <c r="K885" s="2"/>
     </row>
-    <row r="886" spans="1:11">
+    <row r="886" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A886" s="1"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -12690,7 +12721,7 @@
       <c r="J886" s="2"/>
       <c r="K886" s="2"/>
     </row>
-    <row r="887" spans="1:11">
+    <row r="887" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A887" s="1"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -12703,7 +12734,7 @@
       <c r="J887" s="2"/>
       <c r="K887" s="2"/>
     </row>
-    <row r="888" spans="1:11">
+    <row r="888" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A888" s="1"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -12716,7 +12747,7 @@
       <c r="J888" s="2"/>
       <c r="K888" s="2"/>
     </row>
-    <row r="889" spans="1:11">
+    <row r="889" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A889" s="1"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -12729,7 +12760,7 @@
       <c r="J889" s="2"/>
       <c r="K889" s="2"/>
     </row>
-    <row r="890" spans="1:11">
+    <row r="890" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A890" s="1"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -12742,7 +12773,7 @@
       <c r="J890" s="2"/>
       <c r="K890" s="2"/>
     </row>
-    <row r="891" spans="1:11">
+    <row r="891" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A891" s="1"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -12755,7 +12786,7 @@
       <c r="J891" s="2"/>
       <c r="K891" s="2"/>
     </row>
-    <row r="892" spans="1:11">
+    <row r="892" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A892" s="1"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -12768,7 +12799,7 @@
       <c r="J892" s="2"/>
       <c r="K892" s="2"/>
     </row>
-    <row r="893" spans="1:11">
+    <row r="893" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A893" s="1"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -12781,7 +12812,7 @@
       <c r="J893" s="2"/>
       <c r="K893" s="2"/>
     </row>
-    <row r="894" spans="1:11">
+    <row r="894" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A894" s="1"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -12794,7 +12825,7 @@
       <c r="J894" s="2"/>
       <c r="K894" s="2"/>
     </row>
-    <row r="895" spans="1:11">
+    <row r="895" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A895" s="1"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -12807,7 +12838,7 @@
       <c r="J895" s="2"/>
       <c r="K895" s="2"/>
     </row>
-    <row r="896" spans="1:11">
+    <row r="896" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A896" s="1"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -12820,7 +12851,7 @@
       <c r="J896" s="2"/>
       <c r="K896" s="2"/>
     </row>
-    <row r="897" spans="1:11">
+    <row r="897" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A897" s="1"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -12833,7 +12864,7 @@
       <c r="J897" s="2"/>
       <c r="K897" s="2"/>
     </row>
-    <row r="898" spans="1:11">
+    <row r="898" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A898" s="1"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -12846,7 +12877,7 @@
       <c r="J898" s="2"/>
       <c r="K898" s="2"/>
     </row>
-    <row r="899" spans="1:11">
+    <row r="899" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A899" s="1"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -12859,7 +12890,7 @@
       <c r="J899" s="2"/>
       <c r="K899" s="2"/>
     </row>
-    <row r="900" spans="1:11">
+    <row r="900" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -12872,7 +12903,7 @@
       <c r="J900" s="2"/>
       <c r="K900" s="2"/>
     </row>
-    <row r="901" spans="1:11">
+    <row r="901" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A901" s="1"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -12885,7 +12916,7 @@
       <c r="J901" s="2"/>
       <c r="K901" s="2"/>
     </row>
-    <row r="902" spans="1:11">
+    <row r="902" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A902" s="1"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -12898,7 +12929,7 @@
       <c r="J902" s="2"/>
       <c r="K902" s="2"/>
     </row>
-    <row r="903" spans="1:11">
+    <row r="903" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A903" s="1"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -12911,7 +12942,7 @@
       <c r="J903" s="2"/>
       <c r="K903" s="2"/>
     </row>
-    <row r="904" spans="1:11">
+    <row r="904" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A904" s="1"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -12924,7 +12955,7 @@
       <c r="J904" s="2"/>
       <c r="K904" s="2"/>
     </row>
-    <row r="905" spans="1:11">
+    <row r="905" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A905" s="1"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -12937,7 +12968,7 @@
       <c r="J905" s="2"/>
       <c r="K905" s="2"/>
     </row>
-    <row r="906" spans="1:11">
+    <row r="906" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A906" s="1"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -12950,7 +12981,7 @@
       <c r="J906" s="2"/>
       <c r="K906" s="2"/>
     </row>
-    <row r="907" spans="1:11">
+    <row r="907" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A907" s="1"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -12963,7 +12994,7 @@
       <c r="J907" s="2"/>
       <c r="K907" s="2"/>
     </row>
-    <row r="908" spans="1:11">
+    <row r="908" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A908" s="1"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -12976,7 +13007,7 @@
       <c r="J908" s="2"/>
       <c r="K908" s="2"/>
     </row>
-    <row r="909" spans="1:11">
+    <row r="909" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A909" s="1"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -12989,7 +13020,7 @@
       <c r="J909" s="2"/>
       <c r="K909" s="2"/>
     </row>
-    <row r="910" spans="1:11">
+    <row r="910" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A910" s="1"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -13002,7 +13033,7 @@
       <c r="J910" s="2"/>
       <c r="K910" s="2"/>
     </row>
-    <row r="911" spans="1:11">
+    <row r="911" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A911" s="1"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -13015,7 +13046,7 @@
       <c r="J911" s="2"/>
       <c r="K911" s="2"/>
     </row>
-    <row r="912" spans="1:11">
+    <row r="912" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A912" s="1"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -13028,7 +13059,7 @@
       <c r="J912" s="2"/>
       <c r="K912" s="2"/>
     </row>
-    <row r="913" spans="1:11">
+    <row r="913" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A913" s="1"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -13041,7 +13072,7 @@
       <c r="J913" s="2"/>
       <c r="K913" s="2"/>
     </row>
-    <row r="914" spans="1:11">
+    <row r="914" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A914" s="1"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -13054,7 +13085,7 @@
       <c r="J914" s="2"/>
       <c r="K914" s="2"/>
     </row>
-    <row r="915" spans="1:11">
+    <row r="915" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A915" s="1"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -13067,7 +13098,7 @@
       <c r="J915" s="2"/>
       <c r="K915" s="2"/>
     </row>
-    <row r="916" spans="1:11">
+    <row r="916" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A916" s="1"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -13080,7 +13111,7 @@
       <c r="J916" s="2"/>
       <c r="K916" s="2"/>
     </row>
-    <row r="917" spans="1:11">
+    <row r="917" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A917" s="1"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -13093,7 +13124,7 @@
       <c r="J917" s="2"/>
       <c r="K917" s="2"/>
     </row>
-    <row r="918" spans="1:11">
+    <row r="918" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A918" s="1"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -13106,7 +13137,7 @@
       <c r="J918" s="2"/>
       <c r="K918" s="2"/>
     </row>
-    <row r="919" spans="1:11">
+    <row r="919" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A919" s="1"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -13119,7 +13150,7 @@
       <c r="J919" s="2"/>
       <c r="K919" s="2"/>
     </row>
-    <row r="920" spans="1:11">
+    <row r="920" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A920" s="1"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -13132,7 +13163,7 @@
       <c r="J920" s="2"/>
       <c r="K920" s="2"/>
     </row>
-    <row r="921" spans="1:11">
+    <row r="921" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A921" s="1"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -13145,7 +13176,7 @@
       <c r="J921" s="2"/>
       <c r="K921" s="2"/>
     </row>
-    <row r="922" spans="1:11">
+    <row r="922" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A922" s="1"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -13158,7 +13189,7 @@
       <c r="J922" s="2"/>
       <c r="K922" s="2"/>
     </row>
-    <row r="923" spans="1:11">
+    <row r="923" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A923" s="1"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -13171,7 +13202,7 @@
       <c r="J923" s="2"/>
       <c r="K923" s="2"/>
     </row>
-    <row r="924" spans="1:11">
+    <row r="924" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A924" s="1"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -13184,7 +13215,7 @@
       <c r="J924" s="2"/>
       <c r="K924" s="2"/>
     </row>
-    <row r="925" spans="1:11">
+    <row r="925" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A925" s="1"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -13197,7 +13228,7 @@
       <c r="J925" s="2"/>
       <c r="K925" s="2"/>
     </row>
-    <row r="926" spans="1:11">
+    <row r="926" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A926" s="1"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -13210,7 +13241,7 @@
       <c r="J926" s="2"/>
       <c r="K926" s="2"/>
     </row>
-    <row r="927" spans="1:11">
+    <row r="927" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A927" s="1"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -13223,7 +13254,7 @@
       <c r="J927" s="2"/>
       <c r="K927" s="2"/>
     </row>
-    <row r="928" spans="1:11">
+    <row r="928" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A928" s="1"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -13236,7 +13267,7 @@
       <c r="J928" s="2"/>
       <c r="K928" s="2"/>
     </row>
-    <row r="929" spans="1:11">
+    <row r="929" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A929" s="1"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -13249,7 +13280,7 @@
       <c r="J929" s="2"/>
       <c r="K929" s="2"/>
     </row>
-    <row r="930" spans="1:11">
+    <row r="930" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A930" s="1"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -13262,7 +13293,7 @@
       <c r="J930" s="2"/>
       <c r="K930" s="2"/>
     </row>
-    <row r="931" spans="1:11">
+    <row r="931" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A931" s="1"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -13275,7 +13306,7 @@
       <c r="J931" s="2"/>
       <c r="K931" s="2"/>
     </row>
-    <row r="932" spans="1:11">
+    <row r="932" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A932" s="1"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -13288,7 +13319,7 @@
       <c r="J932" s="2"/>
       <c r="K932" s="2"/>
     </row>
-    <row r="933" spans="1:11">
+    <row r="933" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A933" s="1"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -13301,7 +13332,7 @@
       <c r="J933" s="2"/>
       <c r="K933" s="2"/>
     </row>
-    <row r="934" spans="1:11">
+    <row r="934" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A934" s="1"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -13314,7 +13345,7 @@
       <c r="J934" s="2"/>
       <c r="K934" s="2"/>
     </row>
-    <row r="935" spans="1:11">
+    <row r="935" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A935" s="1"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -13327,7 +13358,7 @@
       <c r="J935" s="2"/>
       <c r="K935" s="2"/>
     </row>
-    <row r="936" spans="1:11">
+    <row r="936" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A936" s="1"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -13340,7 +13371,7 @@
       <c r="J936" s="2"/>
       <c r="K936" s="2"/>
     </row>
-    <row r="937" spans="1:11">
+    <row r="937" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A937" s="1"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -13353,7 +13384,7 @@
       <c r="J937" s="2"/>
       <c r="K937" s="2"/>
     </row>
-    <row r="938" spans="1:11">
+    <row r="938" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A938" s="1"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -13366,7 +13397,7 @@
       <c r="J938" s="2"/>
       <c r="K938" s="2"/>
     </row>
-    <row r="939" spans="1:11">
+    <row r="939" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A939" s="1"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -13379,7 +13410,7 @@
       <c r="J939" s="2"/>
       <c r="K939" s="2"/>
     </row>
-    <row r="940" spans="1:11">
+    <row r="940" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A940" s="1"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -13392,7 +13423,7 @@
       <c r="J940" s="2"/>
       <c r="K940" s="2"/>
     </row>
-    <row r="941" spans="1:11">
+    <row r="941" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A941" s="1"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -13405,7 +13436,7 @@
       <c r="J941" s="2"/>
       <c r="K941" s="2"/>
     </row>
-    <row r="942" spans="1:11">
+    <row r="942" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A942" s="1"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -13418,7 +13449,7 @@
       <c r="J942" s="2"/>
       <c r="K942" s="2"/>
     </row>
-    <row r="943" spans="1:11">
+    <row r="943" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A943" s="1"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -13431,7 +13462,7 @@
       <c r="J943" s="2"/>
       <c r="K943" s="2"/>
     </row>
-    <row r="944" spans="1:11">
+    <row r="944" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A944" s="1"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -13444,7 +13475,7 @@
       <c r="J944" s="2"/>
       <c r="K944" s="2"/>
     </row>
-    <row r="945" spans="1:11">
+    <row r="945" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A945" s="1"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -13457,7 +13488,7 @@
       <c r="J945" s="2"/>
       <c r="K945" s="2"/>
     </row>
-    <row r="946" spans="1:11">
+    <row r="946" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A946" s="1"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -13470,7 +13501,7 @@
       <c r="J946" s="2"/>
       <c r="K946" s="2"/>
     </row>
-    <row r="947" spans="1:11">
+    <row r="947" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A947" s="1"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -13483,7 +13514,7 @@
       <c r="J947" s="2"/>
       <c r="K947" s="2"/>
     </row>
-    <row r="948" spans="1:11">
+    <row r="948" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A948" s="1"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -13496,7 +13527,7 @@
       <c r="J948" s="2"/>
       <c r="K948" s="2"/>
     </row>
-    <row r="949" spans="1:11">
+    <row r="949" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A949" s="1"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -13509,7 +13540,7 @@
       <c r="J949" s="2"/>
       <c r="K949" s="2"/>
     </row>
-    <row r="950" spans="1:11">
+    <row r="950" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A950" s="1"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -13522,7 +13553,7 @@
       <c r="J950" s="2"/>
       <c r="K950" s="2"/>
     </row>
-    <row r="951" spans="1:11">
+    <row r="951" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A951" s="1"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -13535,7 +13566,7 @@
       <c r="J951" s="2"/>
       <c r="K951" s="2"/>
     </row>
-    <row r="952" spans="1:11">
+    <row r="952" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A952" s="1"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -13548,7 +13579,7 @@
       <c r="J952" s="2"/>
       <c r="K952" s="2"/>
     </row>
-    <row r="953" spans="1:11">
+    <row r="953" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A953" s="1"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -13561,7 +13592,7 @@
       <c r="J953" s="2"/>
       <c r="K953" s="2"/>
     </row>
-    <row r="954" spans="1:11">
+    <row r="954" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A954" s="1"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -13574,7 +13605,7 @@
       <c r="J954" s="2"/>
       <c r="K954" s="2"/>
     </row>
-    <row r="955" spans="1:11">
+    <row r="955" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A955" s="1"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -13587,7 +13618,7 @@
       <c r="J955" s="2"/>
       <c r="K955" s="2"/>
     </row>
-    <row r="956" spans="1:11">
+    <row r="956" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A956" s="1"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -13600,7 +13631,7 @@
       <c r="J956" s="2"/>
       <c r="K956" s="2"/>
     </row>
-    <row r="957" spans="1:11">
+    <row r="957" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A957" s="1"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -13613,7 +13644,7 @@
       <c r="J957" s="2"/>
       <c r="K957" s="2"/>
     </row>
-    <row r="958" spans="1:11">
+    <row r="958" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A958" s="1"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -13626,7 +13657,7 @@
       <c r="J958" s="2"/>
       <c r="K958" s="2"/>
     </row>
-    <row r="959" spans="1:11">
+    <row r="959" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A959" s="1"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -13639,7 +13670,7 @@
       <c r="J959" s="2"/>
       <c r="K959" s="2"/>
     </row>
-    <row r="960" spans="1:11">
+    <row r="960" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A960" s="1"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -13652,7 +13683,7 @@
       <c r="J960" s="2"/>
       <c r="K960" s="2"/>
     </row>
-    <row r="961" spans="1:11">
+    <row r="961" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A961" s="1"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -13665,7 +13696,7 @@
       <c r="J961" s="2"/>
       <c r="K961" s="2"/>
     </row>
-    <row r="962" spans="1:11">
+    <row r="962" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A962" s="1"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -13678,7 +13709,7 @@
       <c r="J962" s="2"/>
       <c r="K962" s="2"/>
     </row>
-    <row r="963" spans="1:11">
+    <row r="963" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A963" s="1"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -13691,7 +13722,7 @@
       <c r="J963" s="2"/>
       <c r="K963" s="2"/>
     </row>
-    <row r="964" spans="1:11">
+    <row r="964" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A964" s="1"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -13704,7 +13735,7 @@
       <c r="J964" s="2"/>
       <c r="K964" s="2"/>
     </row>
-    <row r="965" spans="1:11">
+    <row r="965" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A965" s="1"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -13717,7 +13748,7 @@
       <c r="J965" s="2"/>
       <c r="K965" s="2"/>
     </row>
-    <row r="966" spans="1:11">
+    <row r="966" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A966" s="1"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -13730,7 +13761,7 @@
       <c r="J966" s="2"/>
       <c r="K966" s="2"/>
     </row>
-    <row r="967" spans="1:11">
+    <row r="967" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -13743,7 +13774,7 @@
       <c r="J967" s="2"/>
       <c r="K967" s="2"/>
     </row>
-    <row r="968" spans="1:11">
+    <row r="968" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A968" s="1"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -13756,7 +13787,7 @@
       <c r="J968" s="2"/>
       <c r="K968" s="2"/>
     </row>
-    <row r="969" spans="1:11">
+    <row r="969" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A969" s="1"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -13769,7 +13800,7 @@
       <c r="J969" s="2"/>
       <c r="K969" s="2"/>
     </row>
-    <row r="970" spans="1:11">
+    <row r="970" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A970" s="1"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -13782,7 +13813,7 @@
       <c r="J970" s="2"/>
       <c r="K970" s="2"/>
     </row>
-    <row r="971" spans="1:11">
+    <row r="971" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A971" s="1"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -13795,7 +13826,7 @@
       <c r="J971" s="2"/>
       <c r="K971" s="2"/>
     </row>
-    <row r="972" spans="1:11">
+    <row r="972" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A972" s="1"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -13808,7 +13839,7 @@
       <c r="J972" s="2"/>
       <c r="K972" s="2"/>
     </row>
-    <row r="973" spans="1:11">
+    <row r="973" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A973" s="1"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -13821,32 +13852,6 @@
       <c r="J973" s="2"/>
       <c r="K973" s="2"/>
     </row>
-    <row r="974" spans="1:11">
-      <c r="A974" s="1"/>
-      <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
-      <c r="D974" s="2"/>
-      <c r="E974" s="2"/>
-      <c r="F974" s="2"/>
-      <c r="G974" s="2"/>
-      <c r="H974" s="2"/>
-      <c r="I974" s="2"/>
-      <c r="J974" s="2"/>
-      <c r="K974" s="2"/>
-    </row>
-    <row r="975" spans="1:11">
-      <c r="A975" s="1"/>
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-      <c r="D975" s="2"/>
-      <c r="E975" s="2"/>
-      <c r="F975" s="2"/>
-      <c r="G975" s="2"/>
-      <c r="H975" s="2"/>
-      <c r="I975" s="2"/>
-      <c r="J975" s="2"/>
-      <c r="K975" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F2:I2"/>
@@ -13857,6 +13862,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>